--- a/BoM (Bill of Materials)/FC_BoM_31MAY2022.xlsx
+++ b/BoM (Bill of Materials)/FC_BoM_31MAY2022.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://minesurvival-my.sharepoint.com/personal/lad_atorlabs_com/Documents/FilterCheck Docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="344" documentId="8_{73B4EB48-7B59-4218-BFC9-B8896872FEA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{676359D6-E071-4030-B120-0FBCD1CAC0FF}"/>
+  <xr:revisionPtr revIDLastSave="352" documentId="8_{73B4EB48-7B59-4218-BFC9-B8896872FEA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A9D8D592-386E-4882-B565-EF7FAF502086}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" xr2:uid="{9B1977BB-3535-494D-A834-6A24EC2CE28F}"/>
   </bookViews>
@@ -721,7 +721,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
+        <fgColor rgb="FFC00000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -840,37 +840,13 @@
     <xf numFmtId="49" fontId="10" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -881,9 +857,6 @@
     </xf>
     <xf numFmtId="7" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -899,12 +872,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -913,32 +880,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -947,10 +893,64 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1270,8 +1270,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DC95EA8-A35C-4DA1-8477-E5A472E946EF}">
   <dimension ref="A1:FS144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="AD20" sqref="AD20"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="I40" sqref="I40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1297,53 +1297,53 @@
       <c r="B1" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19" t="s">
+      <c r="D1" s="58"/>
+      <c r="E1" s="58" t="s">
         <v>152</v>
       </c>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19" t="s">
+      <c r="F1" s="58"/>
+      <c r="G1" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19" t="s">
+      <c r="H1" s="58"/>
+      <c r="I1" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="19"/>
-      <c r="K1" s="20" t="s">
+      <c r="J1" s="58"/>
+      <c r="K1" s="19" t="s">
         <v>3</v>
       </c>
       <c r="L1" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="20" t="s">
+      <c r="M1" s="19" t="s">
         <v>66</v>
       </c>
       <c r="N1" s="18" t="s">
         <v>126</v>
       </c>
-      <c r="O1" s="20" t="s">
+      <c r="O1" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="P1" s="20" t="s">
+      <c r="P1" s="19" t="s">
         <v>127</v>
       </c>
-      <c r="Q1" s="21" t="s">
+      <c r="Q1" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="R1" s="22"/>
-      <c r="S1" s="22"/>
-      <c r="T1" s="22"/>
-      <c r="U1" s="22"/>
-      <c r="V1" s="22"/>
-      <c r="W1" s="22"/>
-      <c r="X1" s="22"/>
-      <c r="Y1" s="22"/>
-      <c r="Z1" s="22"/>
-      <c r="AA1" s="23"/>
+      <c r="R1" s="55"/>
+      <c r="S1" s="55"/>
+      <c r="T1" s="55"/>
+      <c r="U1" s="55"/>
+      <c r="V1" s="55"/>
+      <c r="W1" s="55"/>
+      <c r="X1" s="55"/>
+      <c r="Y1" s="55"/>
+      <c r="Z1" s="55"/>
+      <c r="AA1" s="56"/>
       <c r="AB1" s="18" t="s">
         <v>107</v>
       </c>
@@ -1431,58 +1431,58 @@
       <c r="DA1" s="2"/>
     </row>
     <row r="2" spans="1:105" ht="35.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="24">
+      <c r="A2" s="20">
         <v>1</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="D2" s="26"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="26" t="s">
+      <c r="D2" s="43"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="H2" s="26"/>
-      <c r="I2" s="29" t="s">
+      <c r="H2" s="43"/>
+      <c r="I2" s="46" t="s">
         <v>54</v>
       </c>
-      <c r="J2" s="29"/>
-      <c r="K2" s="24" t="s">
+      <c r="J2" s="46"/>
+      <c r="K2" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="L2" s="30" t="s">
+      <c r="L2" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="M2" s="24">
+      <c r="M2" s="20">
         <v>1</v>
       </c>
-      <c r="N2" s="31" t="s">
+      <c r="N2" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="O2" s="24">
+      <c r="O2" s="20">
         <v>1</v>
       </c>
-      <c r="P2" s="32">
+      <c r="P2" s="24">
         <v>1555</v>
       </c>
-      <c r="Q2" s="33" t="s">
+      <c r="Q2" s="41" t="s">
         <v>55</v>
       </c>
-      <c r="R2" s="33"/>
-      <c r="S2" s="33"/>
-      <c r="T2" s="33"/>
-      <c r="U2" s="33"/>
-      <c r="V2" s="33"/>
-      <c r="W2" s="33"/>
-      <c r="X2" s="33"/>
-      <c r="Y2" s="33"/>
-      <c r="Z2" s="33"/>
-      <c r="AA2" s="33"/>
-      <c r="AB2" s="34"/>
+      <c r="R2" s="41"/>
+      <c r="S2" s="41"/>
+      <c r="T2" s="41"/>
+      <c r="U2" s="41"/>
+      <c r="V2" s="41"/>
+      <c r="W2" s="41"/>
+      <c r="X2" s="41"/>
+      <c r="Y2" s="41"/>
+      <c r="Z2" s="41"/>
+      <c r="AA2" s="41"/>
+      <c r="AB2" s="25"/>
       <c r="AC2" s="13">
         <f>SUM(B62:B99)</f>
         <v>0.02</v>
@@ -1571,58 +1571,58 @@
       <c r="DA2" s="2"/>
     </row>
     <row r="3" spans="1:105" ht="35.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="24">
+      <c r="A3" s="20">
         <v>2</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="43" t="s">
         <v>161</v>
       </c>
-      <c r="D3" s="26"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="26" t="s">
+      <c r="D3" s="43"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="26"/>
-      <c r="I3" s="29" t="s">
+      <c r="H3" s="43"/>
+      <c r="I3" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="29"/>
-      <c r="K3" s="24" t="s">
+      <c r="J3" s="46"/>
+      <c r="K3" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="L3" s="30" t="s">
+      <c r="L3" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="M3" s="24">
+      <c r="M3" s="20">
         <v>1</v>
       </c>
-      <c r="N3" s="31" t="s">
+      <c r="N3" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="O3" s="24">
+      <c r="O3" s="20">
         <v>1</v>
       </c>
-      <c r="P3" s="32">
+      <c r="P3" s="24">
         <v>113.95</v>
       </c>
-      <c r="Q3" s="33" t="s">
+      <c r="Q3" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="R3" s="33"/>
-      <c r="S3" s="33"/>
-      <c r="T3" s="33"/>
-      <c r="U3" s="33"/>
-      <c r="V3" s="33"/>
-      <c r="W3" s="33"/>
-      <c r="X3" s="33"/>
-      <c r="Y3" s="33"/>
-      <c r="Z3" s="33"/>
-      <c r="AA3" s="33"/>
-      <c r="AB3" s="34"/>
+      <c r="R3" s="41"/>
+      <c r="S3" s="41"/>
+      <c r="T3" s="41"/>
+      <c r="U3" s="41"/>
+      <c r="V3" s="41"/>
+      <c r="W3" s="41"/>
+      <c r="X3" s="41"/>
+      <c r="Y3" s="41"/>
+      <c r="Z3" s="41"/>
+      <c r="AA3" s="41"/>
+      <c r="AB3" s="25"/>
       <c r="AC3" s="5"/>
       <c r="AD3" s="5"/>
       <c r="AE3" s="5"/>
@@ -1702,58 +1702,58 @@
       <c r="DA3" s="2"/>
     </row>
     <row r="4" spans="1:105" ht="35.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="24">
+      <c r="A4" s="20">
         <v>3</v>
       </c>
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="26"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="26" t="s">
+      <c r="D4" s="43"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="26"/>
-      <c r="I4" s="29" t="s">
+      <c r="H4" s="43"/>
+      <c r="I4" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="J4" s="29"/>
-      <c r="K4" s="24" t="s">
+      <c r="J4" s="46"/>
+      <c r="K4" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="L4" s="30" t="s">
+      <c r="L4" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="M4" s="24">
+      <c r="M4" s="20">
         <v>1</v>
       </c>
-      <c r="N4" s="31" t="s">
+      <c r="N4" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="O4" s="24">
+      <c r="O4" s="20">
         <v>1</v>
       </c>
-      <c r="P4" s="32">
+      <c r="P4" s="24">
         <v>7.5</v>
       </c>
-      <c r="Q4" s="33" t="s">
+      <c r="Q4" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="R4" s="33"/>
-      <c r="S4" s="33"/>
-      <c r="T4" s="33"/>
-      <c r="U4" s="33"/>
-      <c r="V4" s="33"/>
-      <c r="W4" s="33"/>
-      <c r="X4" s="33"/>
-      <c r="Y4" s="33"/>
-      <c r="Z4" s="33"/>
-      <c r="AA4" s="33"/>
-      <c r="AB4" s="34"/>
+      <c r="R4" s="41"/>
+      <c r="S4" s="41"/>
+      <c r="T4" s="41"/>
+      <c r="U4" s="41"/>
+      <c r="V4" s="41"/>
+      <c r="W4" s="41"/>
+      <c r="X4" s="41"/>
+      <c r="Y4" s="41"/>
+      <c r="Z4" s="41"/>
+      <c r="AA4" s="41"/>
+      <c r="AB4" s="25"/>
       <c r="AC4" s="5"/>
       <c r="AD4" s="5"/>
       <c r="AE4" s="5"/>
@@ -1833,58 +1833,58 @@
       <c r="DA4" s="2"/>
     </row>
     <row r="5" spans="1:105" ht="35.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="24">
+      <c r="A5" s="20">
         <v>4</v>
       </c>
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="26"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="26" t="s">
+      <c r="D5" s="43"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="26"/>
-      <c r="I5" s="29" t="s">
+      <c r="H5" s="43"/>
+      <c r="I5" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="J5" s="29"/>
-      <c r="K5" s="24" t="s">
+      <c r="J5" s="46"/>
+      <c r="K5" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="L5" s="30" t="s">
+      <c r="L5" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="M5" s="24">
+      <c r="M5" s="20">
         <v>1</v>
       </c>
-      <c r="N5" s="31" t="s">
+      <c r="N5" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="O5" s="24">
+      <c r="O5" s="20">
         <v>1</v>
       </c>
-      <c r="P5" s="32">
+      <c r="P5" s="24">
         <v>28.25</v>
       </c>
-      <c r="Q5" s="33" t="s">
+      <c r="Q5" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="R5" s="33"/>
-      <c r="S5" s="33"/>
-      <c r="T5" s="33"/>
-      <c r="U5" s="33"/>
-      <c r="V5" s="33"/>
-      <c r="W5" s="33"/>
-      <c r="X5" s="33"/>
-      <c r="Y5" s="33"/>
-      <c r="Z5" s="33"/>
-      <c r="AA5" s="33"/>
-      <c r="AB5" s="35" t="s">
+      <c r="R5" s="41"/>
+      <c r="S5" s="41"/>
+      <c r="T5" s="41"/>
+      <c r="U5" s="41"/>
+      <c r="V5" s="41"/>
+      <c r="W5" s="41"/>
+      <c r="X5" s="41"/>
+      <c r="Y5" s="41"/>
+      <c r="Z5" s="41"/>
+      <c r="AA5" s="41"/>
+      <c r="AB5" s="26" t="s">
         <v>128</v>
       </c>
       <c r="AC5" s="5"/>
@@ -1965,58 +1965,58 @@
       <c r="DA5" s="2"/>
     </row>
     <row r="6" spans="1:105" ht="35.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="24">
+      <c r="A6" s="20">
         <v>5</v>
       </c>
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="43" t="s">
         <v>147</v>
       </c>
-      <c r="D6" s="26"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="26" t="s">
+      <c r="D6" s="43"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="26"/>
-      <c r="I6" s="29" t="s">
+      <c r="H6" s="43"/>
+      <c r="I6" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="J6" s="29"/>
-      <c r="K6" s="24" t="s">
+      <c r="J6" s="46"/>
+      <c r="K6" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="L6" s="30" t="s">
+      <c r="L6" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="M6" s="24">
+      <c r="M6" s="20">
         <v>1</v>
       </c>
-      <c r="N6" s="31" t="s">
+      <c r="N6" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="O6" s="24">
+      <c r="O6" s="20">
         <v>1</v>
       </c>
-      <c r="P6" s="32">
+      <c r="P6" s="24">
         <v>8.94</v>
       </c>
-      <c r="Q6" s="33" t="s">
+      <c r="Q6" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="R6" s="33"/>
-      <c r="S6" s="33"/>
-      <c r="T6" s="33"/>
-      <c r="U6" s="33"/>
-      <c r="V6" s="33"/>
-      <c r="W6" s="33"/>
-      <c r="X6" s="33"/>
-      <c r="Y6" s="33"/>
-      <c r="Z6" s="33"/>
-      <c r="AA6" s="33"/>
-      <c r="AB6" s="36" t="s">
+      <c r="R6" s="41"/>
+      <c r="S6" s="41"/>
+      <c r="T6" s="41"/>
+      <c r="U6" s="41"/>
+      <c r="V6" s="41"/>
+      <c r="W6" s="41"/>
+      <c r="X6" s="41"/>
+      <c r="Y6" s="41"/>
+      <c r="Z6" s="41"/>
+      <c r="AA6" s="41"/>
+      <c r="AB6" s="27" t="s">
         <v>115</v>
       </c>
       <c r="AC6" s="5"/>
@@ -2097,58 +2097,58 @@
       <c r="DA6" s="2"/>
     </row>
     <row r="7" spans="1:105" ht="35.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="24">
+      <c r="A7" s="20">
         <v>6</v>
       </c>
-      <c r="B7" s="25" t="s">
+      <c r="B7" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="C7" s="26" t="s">
+      <c r="C7" s="43" t="s">
         <v>150</v>
       </c>
-      <c r="D7" s="26"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="26" t="s">
+      <c r="D7" s="43"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="H7" s="26"/>
-      <c r="I7" s="29" t="s">
+      <c r="H7" s="43"/>
+      <c r="I7" s="46" t="s">
         <v>149</v>
       </c>
-      <c r="J7" s="29"/>
-      <c r="K7" s="24" t="s">
+      <c r="J7" s="46"/>
+      <c r="K7" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="L7" s="30" t="s">
+      <c r="L7" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="M7" s="24">
+      <c r="M7" s="20">
         <v>1</v>
       </c>
-      <c r="N7" s="31" t="s">
+      <c r="N7" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="O7" s="24">
+      <c r="O7" s="20">
         <v>5</v>
       </c>
-      <c r="P7" s="32">
+      <c r="P7" s="24">
         <v>9.99</v>
       </c>
-      <c r="Q7" s="33" t="s">
+      <c r="Q7" s="41" t="s">
         <v>148</v>
       </c>
-      <c r="R7" s="33"/>
-      <c r="S7" s="33"/>
-      <c r="T7" s="33"/>
-      <c r="U7" s="33"/>
-      <c r="V7" s="33"/>
-      <c r="W7" s="33"/>
-      <c r="X7" s="33"/>
-      <c r="Y7" s="33"/>
-      <c r="Z7" s="33"/>
-      <c r="AA7" s="33"/>
-      <c r="AB7" s="37"/>
+      <c r="R7" s="41"/>
+      <c r="S7" s="41"/>
+      <c r="T7" s="41"/>
+      <c r="U7" s="41"/>
+      <c r="V7" s="41"/>
+      <c r="W7" s="41"/>
+      <c r="X7" s="41"/>
+      <c r="Y7" s="41"/>
+      <c r="Z7" s="41"/>
+      <c r="AA7" s="41"/>
+      <c r="AB7" s="28"/>
       <c r="AC7" s="5"/>
       <c r="AD7" s="5"/>
       <c r="AF7" s="5"/>
@@ -2227,58 +2227,58 @@
       <c r="DA7" s="2"/>
     </row>
     <row r="8" spans="1:105" ht="35.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="24">
+      <c r="A8" s="20">
         <v>7</v>
       </c>
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="C8" s="26" t="s">
+      <c r="C8" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="26"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="26" t="s">
+      <c r="D8" s="43"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="45"/>
+      <c r="G8" s="43" t="s">
         <v>154</v>
       </c>
-      <c r="H8" s="26"/>
-      <c r="I8" s="29" t="s">
+      <c r="H8" s="43"/>
+      <c r="I8" s="46" t="s">
         <v>155</v>
       </c>
-      <c r="J8" s="29"/>
-      <c r="K8" s="24" t="s">
+      <c r="J8" s="46"/>
+      <c r="K8" s="20" t="s">
         <v>154</v>
       </c>
-      <c r="L8" s="30" t="s">
+      <c r="L8" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="M8" s="24">
+      <c r="M8" s="20">
         <v>1</v>
       </c>
-      <c r="N8" s="31" t="s">
+      <c r="N8" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="O8" s="24">
+      <c r="O8" s="20">
         <v>1</v>
       </c>
-      <c r="P8" s="32">
+      <c r="P8" s="24">
         <v>110</v>
       </c>
-      <c r="Q8" s="33" t="s">
+      <c r="Q8" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="R8" s="33"/>
-      <c r="S8" s="33"/>
-      <c r="T8" s="33"/>
-      <c r="U8" s="33"/>
-      <c r="V8" s="33"/>
-      <c r="W8" s="33"/>
-      <c r="X8" s="33"/>
-      <c r="Y8" s="33"/>
-      <c r="Z8" s="33"/>
-      <c r="AA8" s="33"/>
-      <c r="AB8" s="38"/>
+      <c r="R8" s="41"/>
+      <c r="S8" s="41"/>
+      <c r="T8" s="41"/>
+      <c r="U8" s="41"/>
+      <c r="V8" s="41"/>
+      <c r="W8" s="41"/>
+      <c r="X8" s="41"/>
+      <c r="Y8" s="41"/>
+      <c r="Z8" s="41"/>
+      <c r="AA8" s="41"/>
+      <c r="AB8" s="29"/>
       <c r="AC8" s="5"/>
       <c r="AD8" s="5"/>
       <c r="AF8" s="5"/>
@@ -2357,58 +2357,58 @@
       <c r="DA8" s="2"/>
     </row>
     <row r="9" spans="1:105" ht="37.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="24">
+      <c r="A9" s="20">
         <v>8</v>
       </c>
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="C9" s="26" t="s">
+      <c r="C9" s="43" t="s">
         <v>47</v>
       </c>
-      <c r="D9" s="26"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="26" t="s">
+      <c r="D9" s="43"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="45"/>
+      <c r="G9" s="43" t="s">
         <v>172</v>
       </c>
-      <c r="H9" s="26"/>
-      <c r="I9" s="29" t="s">
+      <c r="H9" s="43"/>
+      <c r="I9" s="46" t="s">
         <v>170</v>
       </c>
-      <c r="J9" s="29"/>
-      <c r="K9" s="24" t="s">
+      <c r="J9" s="46"/>
+      <c r="K9" s="20" t="s">
         <v>169</v>
       </c>
-      <c r="L9" s="30" t="s">
+      <c r="L9" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="M9" s="24">
+      <c r="M9" s="20">
         <v>1</v>
       </c>
-      <c r="N9" s="31" t="s">
+      <c r="N9" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="O9" s="24">
+      <c r="O9" s="20">
         <v>1</v>
       </c>
-      <c r="P9" s="32">
+      <c r="P9" s="24">
         <v>18.21</v>
       </c>
-      <c r="Q9" s="33" t="s">
+      <c r="Q9" s="41" t="s">
         <v>168</v>
       </c>
-      <c r="R9" s="33"/>
-      <c r="S9" s="33"/>
-      <c r="T9" s="33"/>
-      <c r="U9" s="33"/>
-      <c r="V9" s="33"/>
-      <c r="W9" s="33"/>
-      <c r="X9" s="33"/>
-      <c r="Y9" s="33"/>
-      <c r="Z9" s="33"/>
-      <c r="AA9" s="33"/>
-      <c r="AB9" s="39"/>
+      <c r="R9" s="41"/>
+      <c r="S9" s="41"/>
+      <c r="T9" s="41"/>
+      <c r="U9" s="41"/>
+      <c r="V9" s="41"/>
+      <c r="W9" s="41"/>
+      <c r="X9" s="41"/>
+      <c r="Y9" s="41"/>
+      <c r="Z9" s="41"/>
+      <c r="AA9" s="41"/>
+      <c r="AB9" s="30"/>
       <c r="AD9" s="5"/>
       <c r="AE9" s="5"/>
       <c r="AF9" s="5"/>
@@ -2485,58 +2485,58 @@
       <c r="CY9" s="2"/>
     </row>
     <row r="10" spans="1:105" ht="35.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="24">
+      <c r="A10" s="20">
         <v>9</v>
       </c>
-      <c r="B10" s="25" t="s">
+      <c r="B10" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="C10" s="26" t="s">
+      <c r="C10" s="43" t="s">
         <v>140</v>
       </c>
-      <c r="D10" s="26"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="26" t="s">
+      <c r="D10" s="43"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="45"/>
+      <c r="G10" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="H10" s="26"/>
-      <c r="I10" s="29" t="s">
+      <c r="H10" s="43"/>
+      <c r="I10" s="46" t="s">
         <v>171</v>
       </c>
-      <c r="J10" s="29"/>
-      <c r="K10" s="24" t="s">
+      <c r="J10" s="46"/>
+      <c r="K10" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="L10" s="30" t="s">
+      <c r="L10" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="M10" s="24">
+      <c r="M10" s="20">
         <v>1</v>
       </c>
-      <c r="N10" s="31" t="s">
+      <c r="N10" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="O10" s="24">
+      <c r="O10" s="20">
         <v>1</v>
       </c>
-      <c r="P10" s="32">
+      <c r="P10" s="24">
         <v>9.98</v>
       </c>
-      <c r="Q10" s="33" t="s">
+      <c r="Q10" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="R10" s="33"/>
-      <c r="S10" s="33"/>
-      <c r="T10" s="33"/>
-      <c r="U10" s="33"/>
-      <c r="V10" s="33"/>
-      <c r="W10" s="33"/>
-      <c r="X10" s="33"/>
-      <c r="Y10" s="33"/>
-      <c r="Z10" s="33"/>
-      <c r="AA10" s="33"/>
-      <c r="AB10" s="37"/>
+      <c r="R10" s="41"/>
+      <c r="S10" s="41"/>
+      <c r="T10" s="41"/>
+      <c r="U10" s="41"/>
+      <c r="V10" s="41"/>
+      <c r="W10" s="41"/>
+      <c r="X10" s="41"/>
+      <c r="Y10" s="41"/>
+      <c r="Z10" s="41"/>
+      <c r="AA10" s="41"/>
+      <c r="AB10" s="28"/>
       <c r="AC10" s="5"/>
       <c r="AD10" s="5"/>
       <c r="AF10" s="5"/>
@@ -2615,58 +2615,58 @@
       <c r="DA10" s="2"/>
     </row>
     <row r="11" spans="1:105" ht="35.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="24">
+      <c r="A11" s="20">
         <v>10</v>
       </c>
-      <c r="B11" s="25" t="s">
+      <c r="B11" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="C11" s="26" t="s">
+      <c r="C11" s="43" t="s">
         <v>151</v>
       </c>
-      <c r="D11" s="26"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="26" t="s">
+      <c r="D11" s="43"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="45"/>
+      <c r="G11" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="H11" s="26"/>
-      <c r="I11" s="40" t="s">
+      <c r="H11" s="43"/>
+      <c r="I11" s="57" t="s">
         <v>63</v>
       </c>
-      <c r="J11" s="29"/>
-      <c r="K11" s="24" t="s">
+      <c r="J11" s="46"/>
+      <c r="K11" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="L11" s="30" t="s">
+      <c r="L11" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="M11" s="24">
+      <c r="M11" s="20">
         <v>1</v>
       </c>
-      <c r="N11" s="31" t="s">
+      <c r="N11" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="O11" s="24">
+      <c r="O11" s="20">
         <v>1</v>
       </c>
-      <c r="P11" s="32">
+      <c r="P11" s="24">
         <v>22.2</v>
       </c>
-      <c r="Q11" s="33" t="s">
+      <c r="Q11" s="41" t="s">
         <v>62</v>
       </c>
-      <c r="R11" s="33"/>
-      <c r="S11" s="33"/>
-      <c r="T11" s="33"/>
-      <c r="U11" s="33"/>
-      <c r="V11" s="33"/>
-      <c r="W11" s="33"/>
-      <c r="X11" s="33"/>
-      <c r="Y11" s="33"/>
-      <c r="Z11" s="33"/>
-      <c r="AA11" s="33"/>
-      <c r="AB11" s="36" t="s">
+      <c r="R11" s="41"/>
+      <c r="S11" s="41"/>
+      <c r="T11" s="41"/>
+      <c r="U11" s="41"/>
+      <c r="V11" s="41"/>
+      <c r="W11" s="41"/>
+      <c r="X11" s="41"/>
+      <c r="Y11" s="41"/>
+      <c r="Z11" s="41"/>
+      <c r="AA11" s="41"/>
+      <c r="AB11" s="27" t="s">
         <v>115</v>
       </c>
       <c r="AC11" s="5"/>
@@ -2747,58 +2747,58 @@
       <c r="DA11" s="2"/>
     </row>
     <row r="12" spans="1:105" ht="35.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="24">
+      <c r="A12" s="20">
         <v>11</v>
       </c>
-      <c r="B12" s="25" t="s">
+      <c r="B12" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="C12" s="26" t="s">
+      <c r="C12" s="43" t="s">
         <v>141</v>
       </c>
-      <c r="D12" s="26"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="26" t="s">
+      <c r="D12" s="43"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="45"/>
+      <c r="G12" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="H12" s="26"/>
-      <c r="I12" s="29" t="s">
+      <c r="H12" s="43"/>
+      <c r="I12" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="J12" s="29"/>
-      <c r="K12" s="24" t="s">
+      <c r="J12" s="46"/>
+      <c r="K12" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="L12" s="30" t="s">
+      <c r="L12" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="M12" s="24">
+      <c r="M12" s="20">
         <v>1</v>
       </c>
-      <c r="N12" s="31" t="s">
+      <c r="N12" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="O12" s="24">
+      <c r="O12" s="20">
         <v>5</v>
       </c>
-      <c r="P12" s="32">
+      <c r="P12" s="24">
         <v>6.49</v>
       </c>
-      <c r="Q12" s="33" t="s">
+      <c r="Q12" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="R12" s="33"/>
-      <c r="S12" s="33"/>
-      <c r="T12" s="33"/>
-      <c r="U12" s="33"/>
-      <c r="V12" s="33"/>
-      <c r="W12" s="33"/>
-      <c r="X12" s="33"/>
-      <c r="Y12" s="33"/>
-      <c r="Z12" s="33"/>
-      <c r="AA12" s="33"/>
-      <c r="AB12" s="36" t="s">
+      <c r="R12" s="41"/>
+      <c r="S12" s="41"/>
+      <c r="T12" s="41"/>
+      <c r="U12" s="41"/>
+      <c r="V12" s="41"/>
+      <c r="W12" s="41"/>
+      <c r="X12" s="41"/>
+      <c r="Y12" s="41"/>
+      <c r="Z12" s="41"/>
+      <c r="AA12" s="41"/>
+      <c r="AB12" s="27" t="s">
         <v>115</v>
       </c>
       <c r="AC12" s="5"/>
@@ -2879,58 +2879,58 @@
       <c r="DA12" s="2"/>
     </row>
     <row r="13" spans="1:105" ht="35.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="24">
+      <c r="A13" s="20">
         <v>12</v>
       </c>
-      <c r="B13" s="25" t="s">
+      <c r="B13" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="C13" s="26" t="s">
+      <c r="C13" s="43" t="s">
         <v>153</v>
       </c>
-      <c r="D13" s="26"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="26" t="s">
+      <c r="D13" s="43"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="45"/>
+      <c r="G13" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="H13" s="26"/>
-      <c r="I13" s="29" t="s">
+      <c r="H13" s="43"/>
+      <c r="I13" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="J13" s="29"/>
-      <c r="K13" s="24" t="s">
+      <c r="J13" s="46"/>
+      <c r="K13" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="L13" s="30" t="s">
+      <c r="L13" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="M13" s="24">
+      <c r="M13" s="20">
         <v>1</v>
       </c>
-      <c r="N13" s="31" t="s">
+      <c r="N13" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="O13" s="24">
+      <c r="O13" s="20">
         <v>1</v>
       </c>
-      <c r="P13" s="32">
+      <c r="P13" s="24">
         <v>5.99</v>
       </c>
-      <c r="Q13" s="33" t="s">
+      <c r="Q13" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="R13" s="33"/>
-      <c r="S13" s="33"/>
-      <c r="T13" s="33"/>
-      <c r="U13" s="33"/>
-      <c r="V13" s="33"/>
-      <c r="W13" s="33"/>
-      <c r="X13" s="33"/>
-      <c r="Y13" s="33"/>
-      <c r="Z13" s="33"/>
-      <c r="AA13" s="33"/>
-      <c r="AB13" s="36" t="s">
+      <c r="R13" s="41"/>
+      <c r="S13" s="41"/>
+      <c r="T13" s="41"/>
+      <c r="U13" s="41"/>
+      <c r="V13" s="41"/>
+      <c r="W13" s="41"/>
+      <c r="X13" s="41"/>
+      <c r="Y13" s="41"/>
+      <c r="Z13" s="41"/>
+      <c r="AA13" s="41"/>
+      <c r="AB13" s="27" t="s">
         <v>115</v>
       </c>
       <c r="AC13" s="5"/>
@@ -3011,58 +3011,58 @@
       <c r="DA13" s="2"/>
     </row>
     <row r="14" spans="1:105" ht="35.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="24">
+      <c r="A14" s="20">
         <v>13</v>
       </c>
-      <c r="B14" s="25" t="s">
+      <c r="B14" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="C14" s="26" t="s">
+      <c r="C14" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="26"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="26" t="s">
+      <c r="D14" s="43"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="45"/>
+      <c r="G14" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="H14" s="26"/>
-      <c r="I14" s="29" t="s">
+      <c r="H14" s="43"/>
+      <c r="I14" s="46" t="s">
         <v>43</v>
       </c>
-      <c r="J14" s="29"/>
-      <c r="K14" s="24" t="s">
+      <c r="J14" s="46"/>
+      <c r="K14" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="L14" s="30" t="s">
+      <c r="L14" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="24">
+      <c r="M14" s="20">
         <v>1</v>
       </c>
-      <c r="N14" s="31" t="s">
+      <c r="N14" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="O14" s="24">
+      <c r="O14" s="20">
         <v>1</v>
       </c>
-      <c r="P14" s="32">
+      <c r="P14" s="24">
         <v>23.9</v>
       </c>
-      <c r="Q14" s="33" t="s">
+      <c r="Q14" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="R14" s="33"/>
-      <c r="S14" s="33"/>
-      <c r="T14" s="33"/>
-      <c r="U14" s="33"/>
-      <c r="V14" s="33"/>
-      <c r="W14" s="33"/>
-      <c r="X14" s="33"/>
-      <c r="Y14" s="33"/>
-      <c r="Z14" s="33"/>
-      <c r="AA14" s="33"/>
-      <c r="AB14" s="39"/>
+      <c r="R14" s="41"/>
+      <c r="S14" s="41"/>
+      <c r="T14" s="41"/>
+      <c r="U14" s="41"/>
+      <c r="V14" s="41"/>
+      <c r="W14" s="41"/>
+      <c r="X14" s="41"/>
+      <c r="Y14" s="41"/>
+      <c r="Z14" s="41"/>
+      <c r="AA14" s="41"/>
+      <c r="AB14" s="30"/>
       <c r="AC14" s="5"/>
       <c r="AE14" s="5"/>
       <c r="AF14" s="5"/>
@@ -3140,58 +3140,58 @@
       <c r="CZ14" s="2"/>
     </row>
     <row r="15" spans="1:105" ht="35.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="24">
+      <c r="A15" s="20">
         <v>14</v>
       </c>
-      <c r="B15" s="25" t="s">
+      <c r="B15" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="C15" s="26" t="s">
+      <c r="C15" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="D15" s="26"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="26" t="s">
+      <c r="D15" s="43"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="45"/>
+      <c r="G15" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="H15" s="26"/>
-      <c r="I15" s="29" t="s">
+      <c r="H15" s="43"/>
+      <c r="I15" s="46" t="s">
         <v>163</v>
       </c>
-      <c r="J15" s="29"/>
-      <c r="K15" s="24" t="s">
+      <c r="J15" s="46"/>
+      <c r="K15" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="L15" s="30" t="s">
+      <c r="L15" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="M15" s="24">
+      <c r="M15" s="20">
         <v>1</v>
       </c>
-      <c r="N15" s="31" t="s">
+      <c r="N15" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="O15" s="24">
+      <c r="O15" s="20">
         <v>1</v>
       </c>
-      <c r="P15" s="32">
+      <c r="P15" s="24">
         <v>15.68</v>
       </c>
-      <c r="Q15" s="33" t="s">
+      <c r="Q15" s="41" t="s">
         <v>162</v>
       </c>
-      <c r="R15" s="33"/>
-      <c r="S15" s="33"/>
-      <c r="T15" s="33"/>
-      <c r="U15" s="33"/>
-      <c r="V15" s="33"/>
-      <c r="W15" s="33"/>
-      <c r="X15" s="33"/>
-      <c r="Y15" s="33"/>
-      <c r="Z15" s="33"/>
-      <c r="AA15" s="33"/>
-      <c r="AB15" s="36" t="s">
+      <c r="R15" s="41"/>
+      <c r="S15" s="41"/>
+      <c r="T15" s="41"/>
+      <c r="U15" s="41"/>
+      <c r="V15" s="41"/>
+      <c r="W15" s="41"/>
+      <c r="X15" s="41"/>
+      <c r="Y15" s="41"/>
+      <c r="Z15" s="41"/>
+      <c r="AA15" s="41"/>
+      <c r="AB15" s="27" t="s">
         <v>115</v>
       </c>
       <c r="AC15" s="5"/>
@@ -3271,58 +3271,58 @@
       <c r="CZ15" s="2"/>
     </row>
     <row r="16" spans="1:105" ht="35.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="24">
+      <c r="A16" s="20">
         <v>15</v>
       </c>
-      <c r="B16" s="25" t="s">
+      <c r="B16" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="C16" s="26" t="s">
+      <c r="C16" s="43" t="s">
         <v>142</v>
       </c>
-      <c r="D16" s="26"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="26" t="s">
+      <c r="D16" s="43"/>
+      <c r="E16" s="44"/>
+      <c r="F16" s="45"/>
+      <c r="G16" s="43" t="s">
         <v>139</v>
       </c>
-      <c r="H16" s="26"/>
-      <c r="I16" s="29" t="s">
+      <c r="H16" s="43"/>
+      <c r="I16" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="J16" s="29"/>
-      <c r="K16" s="24" t="s">
+      <c r="J16" s="46"/>
+      <c r="K16" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="L16" s="30" t="s">
+      <c r="L16" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="M16" s="24">
+      <c r="M16" s="20">
         <v>1</v>
       </c>
-      <c r="N16" s="31" t="s">
+      <c r="N16" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="O16" s="24">
+      <c r="O16" s="20">
         <v>2</v>
       </c>
-      <c r="P16" s="32">
+      <c r="P16" s="24">
         <v>7.99</v>
       </c>
-      <c r="Q16" s="33" t="s">
+      <c r="Q16" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="R16" s="33"/>
-      <c r="S16" s="33"/>
-      <c r="T16" s="33"/>
-      <c r="U16" s="33"/>
-      <c r="V16" s="33"/>
-      <c r="W16" s="33"/>
-      <c r="X16" s="33"/>
-      <c r="Y16" s="33"/>
-      <c r="Z16" s="33"/>
-      <c r="AA16" s="33"/>
-      <c r="AB16" s="36" t="s">
+      <c r="R16" s="41"/>
+      <c r="S16" s="41"/>
+      <c r="T16" s="41"/>
+      <c r="U16" s="41"/>
+      <c r="V16" s="41"/>
+      <c r="W16" s="41"/>
+      <c r="X16" s="41"/>
+      <c r="Y16" s="41"/>
+      <c r="Z16" s="41"/>
+      <c r="AA16" s="41"/>
+      <c r="AB16" s="27" t="s">
         <v>115</v>
       </c>
       <c r="AC16" s="5"/>
@@ -3402,58 +3402,58 @@
       <c r="CZ16" s="2"/>
     </row>
     <row r="17" spans="1:173" ht="55.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="24">
+      <c r="A17" s="20">
         <v>16</v>
       </c>
-      <c r="B17" s="25" t="s">
+      <c r="B17" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="C17" s="26" t="s">
+      <c r="C17" s="43" t="s">
         <v>143</v>
       </c>
-      <c r="D17" s="26"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="26" t="s">
+      <c r="D17" s="43"/>
+      <c r="E17" s="44"/>
+      <c r="F17" s="45"/>
+      <c r="G17" s="43" t="s">
         <v>51</v>
       </c>
-      <c r="H17" s="26"/>
-      <c r="I17" s="29" t="s">
+      <c r="H17" s="43"/>
+      <c r="I17" s="46" t="s">
         <v>58</v>
       </c>
-      <c r="J17" s="29"/>
-      <c r="K17" s="24" t="s">
+      <c r="J17" s="46"/>
+      <c r="K17" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="L17" s="30" t="s">
+      <c r="L17" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="M17" s="24">
+      <c r="M17" s="20">
         <v>1</v>
       </c>
-      <c r="N17" s="31" t="s">
+      <c r="N17" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="O17" s="24">
+      <c r="O17" s="20">
         <v>1</v>
       </c>
-      <c r="P17" s="32">
+      <c r="P17" s="24">
         <v>8.4</v>
       </c>
-      <c r="Q17" s="33" t="s">
+      <c r="Q17" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="R17" s="33"/>
-      <c r="S17" s="33"/>
-      <c r="T17" s="33"/>
-      <c r="U17" s="33"/>
-      <c r="V17" s="33"/>
-      <c r="W17" s="33"/>
-      <c r="X17" s="33"/>
-      <c r="Y17" s="33"/>
-      <c r="Z17" s="33"/>
-      <c r="AA17" s="33"/>
-      <c r="AB17" s="36" t="s">
+      <c r="R17" s="41"/>
+      <c r="S17" s="41"/>
+      <c r="T17" s="41"/>
+      <c r="U17" s="41"/>
+      <c r="V17" s="41"/>
+      <c r="W17" s="41"/>
+      <c r="X17" s="41"/>
+      <c r="Y17" s="41"/>
+      <c r="Z17" s="41"/>
+      <c r="AA17" s="41"/>
+      <c r="AB17" s="27" t="s">
         <v>115</v>
       </c>
       <c r="AC17" s="5"/>
@@ -3533,58 +3533,58 @@
       <c r="CZ17" s="2"/>
     </row>
     <row r="18" spans="1:173" ht="35.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="24">
+      <c r="A18" s="20">
         <v>17</v>
       </c>
-      <c r="B18" s="25" t="s">
+      <c r="B18" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="C18" s="26" t="s">
+      <c r="C18" s="43" t="s">
         <v>144</v>
       </c>
-      <c r="D18" s="26"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="26" t="s">
+      <c r="D18" s="43"/>
+      <c r="E18" s="44"/>
+      <c r="F18" s="45"/>
+      <c r="G18" s="43" t="s">
         <v>56</v>
       </c>
-      <c r="H18" s="26"/>
-      <c r="I18" s="29" t="s">
+      <c r="H18" s="43"/>
+      <c r="I18" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="J18" s="29"/>
-      <c r="K18" s="24" t="s">
+      <c r="J18" s="46"/>
+      <c r="K18" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="L18" s="30" t="s">
+      <c r="L18" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="M18" s="24">
+      <c r="M18" s="20">
         <v>1</v>
       </c>
-      <c r="N18" s="31" t="s">
+      <c r="N18" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="O18" s="24">
+      <c r="O18" s="20">
         <v>1</v>
       </c>
-      <c r="P18" s="32">
+      <c r="P18" s="24">
         <v>81.58</v>
       </c>
-      <c r="Q18" s="33" t="s">
+      <c r="Q18" s="41" t="s">
         <v>59</v>
       </c>
-      <c r="R18" s="33"/>
-      <c r="S18" s="33"/>
-      <c r="T18" s="33"/>
-      <c r="U18" s="33"/>
-      <c r="V18" s="33"/>
-      <c r="W18" s="33"/>
-      <c r="X18" s="33"/>
-      <c r="Y18" s="33"/>
-      <c r="Z18" s="33"/>
-      <c r="AA18" s="33"/>
-      <c r="AB18" s="59" t="s">
+      <c r="R18" s="41"/>
+      <c r="S18" s="41"/>
+      <c r="T18" s="41"/>
+      <c r="U18" s="41"/>
+      <c r="V18" s="41"/>
+      <c r="W18" s="41"/>
+      <c r="X18" s="41"/>
+      <c r="Y18" s="41"/>
+      <c r="Z18" s="41"/>
+      <c r="AA18" s="41"/>
+      <c r="AB18" s="40" t="s">
         <v>129</v>
       </c>
       <c r="AC18" s="5"/>
@@ -3665,58 +3665,58 @@
       <c r="DA18" s="2"/>
     </row>
     <row r="19" spans="1:173" ht="35.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="24">
+      <c r="A19" s="20">
         <v>18</v>
       </c>
-      <c r="B19" s="25" t="s">
+      <c r="B19" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="C19" s="26" t="s">
+      <c r="C19" s="43" t="s">
         <v>97</v>
       </c>
-      <c r="D19" s="26"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="26" t="s">
+      <c r="D19" s="43"/>
+      <c r="E19" s="44"/>
+      <c r="F19" s="45"/>
+      <c r="G19" s="43" t="s">
         <v>80</v>
       </c>
-      <c r="H19" s="26"/>
-      <c r="I19" s="29" t="s">
+      <c r="H19" s="43"/>
+      <c r="I19" s="46" t="s">
         <v>100</v>
       </c>
-      <c r="J19" s="29"/>
-      <c r="K19" s="24" t="s">
+      <c r="J19" s="46"/>
+      <c r="K19" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="L19" s="30" t="s">
+      <c r="L19" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="M19" s="24">
+      <c r="M19" s="20">
         <v>1</v>
       </c>
-      <c r="N19" s="31" t="s">
+      <c r="N19" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="O19" s="24">
+      <c r="O19" s="20">
         <v>50</v>
       </c>
-      <c r="P19" s="32">
+      <c r="P19" s="24">
         <v>8.69</v>
       </c>
-      <c r="Q19" s="33" t="s">
+      <c r="Q19" s="41" t="s">
         <v>79</v>
       </c>
-      <c r="R19" s="41"/>
-      <c r="S19" s="41"/>
-      <c r="T19" s="41"/>
-      <c r="U19" s="41"/>
-      <c r="V19" s="41"/>
-      <c r="W19" s="41"/>
-      <c r="X19" s="41"/>
-      <c r="Y19" s="41"/>
-      <c r="Z19" s="41"/>
-      <c r="AA19" s="41"/>
-      <c r="AB19" s="36" t="s">
+      <c r="R19" s="42"/>
+      <c r="S19" s="42"/>
+      <c r="T19" s="42"/>
+      <c r="U19" s="42"/>
+      <c r="V19" s="42"/>
+      <c r="W19" s="42"/>
+      <c r="X19" s="42"/>
+      <c r="Y19" s="42"/>
+      <c r="Z19" s="42"/>
+      <c r="AA19" s="42"/>
+      <c r="AB19" s="27" t="s">
         <v>115</v>
       </c>
       <c r="AC19" s="6"/>
@@ -3797,58 +3797,58 @@
       <c r="DA19" s="2"/>
     </row>
     <row r="20" spans="1:173" ht="35.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="24">
+      <c r="A20" s="20">
         <v>19</v>
       </c>
-      <c r="B20" s="25" t="s">
+      <c r="B20" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="C20" s="26" t="s">
+      <c r="C20" s="43" t="s">
         <v>98</v>
       </c>
-      <c r="D20" s="26"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="28"/>
-      <c r="G20" s="26" t="s">
+      <c r="D20" s="43"/>
+      <c r="E20" s="44"/>
+      <c r="F20" s="45"/>
+      <c r="G20" s="43" t="s">
         <v>80</v>
       </c>
-      <c r="H20" s="26"/>
-      <c r="I20" s="29" t="s">
+      <c r="H20" s="43"/>
+      <c r="I20" s="46" t="s">
         <v>99</v>
       </c>
-      <c r="J20" s="29"/>
-      <c r="K20" s="24" t="s">
+      <c r="J20" s="46"/>
+      <c r="K20" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="L20" s="30" t="s">
+      <c r="L20" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="M20" s="24">
+      <c r="M20" s="20">
         <v>1</v>
       </c>
-      <c r="N20" s="31" t="s">
+      <c r="N20" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="O20" s="24">
+      <c r="O20" s="20">
         <v>50</v>
       </c>
-      <c r="P20" s="32">
+      <c r="P20" s="24">
         <v>8.69</v>
       </c>
-      <c r="Q20" s="33" t="s">
+      <c r="Q20" s="41" t="s">
         <v>78</v>
       </c>
-      <c r="R20" s="41"/>
-      <c r="S20" s="41"/>
-      <c r="T20" s="41"/>
-      <c r="U20" s="41"/>
-      <c r="V20" s="41"/>
-      <c r="W20" s="41"/>
-      <c r="X20" s="41"/>
-      <c r="Y20" s="41"/>
-      <c r="Z20" s="41"/>
-      <c r="AA20" s="41"/>
-      <c r="AB20" s="36" t="s">
+      <c r="R20" s="42"/>
+      <c r="S20" s="42"/>
+      <c r="T20" s="42"/>
+      <c r="U20" s="42"/>
+      <c r="V20" s="42"/>
+      <c r="W20" s="42"/>
+      <c r="X20" s="42"/>
+      <c r="Y20" s="42"/>
+      <c r="Z20" s="42"/>
+      <c r="AA20" s="42"/>
+      <c r="AB20" s="27" t="s">
         <v>115</v>
       </c>
       <c r="AC20" s="6"/>
@@ -3929,58 +3929,58 @@
       <c r="DA20" s="2"/>
     </row>
     <row r="21" spans="1:173" ht="35.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="24">
+      <c r="A21" s="20">
         <v>20</v>
       </c>
-      <c r="B21" s="25" t="s">
+      <c r="B21" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="C21" s="26" t="s">
+      <c r="C21" s="43" t="s">
         <v>90</v>
       </c>
-      <c r="D21" s="26"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="26" t="s">
+      <c r="D21" s="43"/>
+      <c r="E21" s="44"/>
+      <c r="F21" s="45"/>
+      <c r="G21" s="43" t="s">
         <v>93</v>
       </c>
-      <c r="H21" s="26"/>
-      <c r="I21" s="29" t="s">
+      <c r="H21" s="43"/>
+      <c r="I21" s="46" t="s">
         <v>92</v>
       </c>
-      <c r="J21" s="29"/>
-      <c r="K21" s="24" t="s">
+      <c r="J21" s="46"/>
+      <c r="K21" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="L21" s="30" t="s">
+      <c r="L21" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="M21" s="24">
+      <c r="M21" s="20">
         <v>1</v>
       </c>
-      <c r="N21" s="31" t="s">
+      <c r="N21" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="O21" s="24">
+      <c r="O21" s="20">
         <v>2</v>
       </c>
-      <c r="P21" s="32">
+      <c r="P21" s="24">
         <v>8.99</v>
       </c>
-      <c r="Q21" s="33" t="s">
+      <c r="Q21" s="41" t="s">
         <v>91</v>
       </c>
-      <c r="R21" s="41"/>
-      <c r="S21" s="41"/>
-      <c r="T21" s="41"/>
-      <c r="U21" s="41"/>
-      <c r="V21" s="41"/>
-      <c r="W21" s="41"/>
-      <c r="X21" s="41"/>
-      <c r="Y21" s="41"/>
-      <c r="Z21" s="41"/>
-      <c r="AA21" s="41"/>
-      <c r="AB21" s="42"/>
+      <c r="R21" s="42"/>
+      <c r="S21" s="42"/>
+      <c r="T21" s="42"/>
+      <c r="U21" s="42"/>
+      <c r="V21" s="42"/>
+      <c r="W21" s="42"/>
+      <c r="X21" s="42"/>
+      <c r="Y21" s="42"/>
+      <c r="Z21" s="42"/>
+      <c r="AA21" s="42"/>
+      <c r="AB21" s="31"/>
       <c r="AC21" s="6"/>
       <c r="AD21" s="6"/>
       <c r="AF21" s="6"/>
@@ -4059,58 +4059,58 @@
       <c r="DA21" s="2"/>
     </row>
     <row r="22" spans="1:173" ht="35.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="24">
+      <c r="A22" s="20">
         <v>21</v>
       </c>
-      <c r="B22" s="25" t="s">
+      <c r="B22" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="C22" s="26" t="s">
+      <c r="C22" s="43" t="s">
         <v>145</v>
       </c>
-      <c r="D22" s="26"/>
-      <c r="E22" s="27"/>
-      <c r="F22" s="28"/>
-      <c r="G22" s="26" t="s">
+      <c r="D22" s="43"/>
+      <c r="E22" s="44"/>
+      <c r="F22" s="45"/>
+      <c r="G22" s="43" t="s">
         <v>131</v>
       </c>
-      <c r="H22" s="26"/>
-      <c r="I22" s="29" t="s">
+      <c r="H22" s="43"/>
+      <c r="I22" s="46" t="s">
         <v>134</v>
       </c>
-      <c r="J22" s="29"/>
-      <c r="K22" s="24" t="s">
+      <c r="J22" s="46"/>
+      <c r="K22" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="L22" s="24">
+      <c r="L22" s="20">
         <v>1</v>
       </c>
-      <c r="M22" s="24">
+      <c r="M22" s="20">
         <v>1</v>
       </c>
-      <c r="N22" s="31" t="s">
+      <c r="N22" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="O22" s="24">
+      <c r="O22" s="20">
         <v>1</v>
       </c>
-      <c r="P22" s="32">
+      <c r="P22" s="24">
         <v>35.979999999999997</v>
       </c>
-      <c r="Q22" s="33" t="s">
+      <c r="Q22" s="41" t="s">
         <v>135</v>
       </c>
-      <c r="R22" s="41"/>
-      <c r="S22" s="41"/>
-      <c r="T22" s="41"/>
-      <c r="U22" s="41"/>
-      <c r="V22" s="41"/>
-      <c r="W22" s="41"/>
-      <c r="X22" s="41"/>
-      <c r="Y22" s="41"/>
-      <c r="Z22" s="41"/>
-      <c r="AA22" s="41"/>
-      <c r="AB22" s="38"/>
+      <c r="R22" s="42"/>
+      <c r="S22" s="42"/>
+      <c r="T22" s="42"/>
+      <c r="U22" s="42"/>
+      <c r="V22" s="42"/>
+      <c r="W22" s="42"/>
+      <c r="X22" s="42"/>
+      <c r="Y22" s="42"/>
+      <c r="Z22" s="42"/>
+      <c r="AA22" s="42"/>
+      <c r="AB22" s="29"/>
       <c r="AC22" s="6"/>
       <c r="AD22" s="6"/>
       <c r="AF22" s="6"/>
@@ -4189,58 +4189,58 @@
       <c r="DA22" s="2"/>
     </row>
     <row r="23" spans="1:173" ht="35.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="24">
+      <c r="A23" s="20">
         <v>22</v>
       </c>
-      <c r="B23" s="25" t="s">
+      <c r="B23" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="C23" s="26" t="s">
+      <c r="C23" s="43" t="s">
         <v>146</v>
       </c>
-      <c r="D23" s="26"/>
-      <c r="E23" s="27"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="26" t="s">
+      <c r="D23" s="43"/>
+      <c r="E23" s="44"/>
+      <c r="F23" s="45"/>
+      <c r="G23" s="43" t="s">
         <v>131</v>
       </c>
-      <c r="H23" s="26"/>
-      <c r="I23" s="29" t="s">
+      <c r="H23" s="43"/>
+      <c r="I23" s="46" t="s">
         <v>132</v>
       </c>
-      <c r="J23" s="29"/>
-      <c r="K23" s="24" t="s">
+      <c r="J23" s="46"/>
+      <c r="K23" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="L23" s="24">
+      <c r="L23" s="20">
         <v>1</v>
       </c>
-      <c r="M23" s="24">
+      <c r="M23" s="20">
         <v>1</v>
       </c>
-      <c r="N23" s="31" t="s">
+      <c r="N23" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="O23" s="24">
+      <c r="O23" s="20">
         <v>1</v>
       </c>
-      <c r="P23" s="32">
+      <c r="P23" s="24">
         <v>25.98</v>
       </c>
-      <c r="Q23" s="33" t="s">
+      <c r="Q23" s="41" t="s">
         <v>133</v>
       </c>
-      <c r="R23" s="41"/>
-      <c r="S23" s="41"/>
-      <c r="T23" s="41"/>
-      <c r="U23" s="41"/>
-      <c r="V23" s="41"/>
-      <c r="W23" s="41"/>
-      <c r="X23" s="41"/>
-      <c r="Y23" s="41"/>
-      <c r="Z23" s="41"/>
-      <c r="AA23" s="41"/>
-      <c r="AB23" s="43"/>
+      <c r="R23" s="42"/>
+      <c r="S23" s="42"/>
+      <c r="T23" s="42"/>
+      <c r="U23" s="42"/>
+      <c r="V23" s="42"/>
+      <c r="W23" s="42"/>
+      <c r="X23" s="42"/>
+      <c r="Y23" s="42"/>
+      <c r="Z23" s="42"/>
+      <c r="AA23" s="42"/>
+      <c r="AB23" s="32"/>
       <c r="AC23" s="6"/>
       <c r="AD23" s="6"/>
       <c r="AF23" s="6"/>
@@ -4319,58 +4319,58 @@
       <c r="DA23" s="2"/>
     </row>
     <row r="24" spans="1:173" ht="35.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="24">
+      <c r="A24" s="20">
         <v>23</v>
       </c>
-      <c r="B24" s="25" t="s">
+      <c r="B24" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="C24" s="26" t="s">
+      <c r="C24" s="43" t="s">
         <v>159</v>
       </c>
-      <c r="D24" s="26"/>
-      <c r="E24" s="27"/>
-      <c r="F24" s="28"/>
-      <c r="G24" s="26" t="s">
+      <c r="D24" s="43"/>
+      <c r="E24" s="44"/>
+      <c r="F24" s="45"/>
+      <c r="G24" s="43" t="s">
         <v>156</v>
       </c>
-      <c r="H24" s="26"/>
-      <c r="I24" s="29" t="s">
+      <c r="H24" s="43"/>
+      <c r="I24" s="46" t="s">
         <v>158</v>
       </c>
-      <c r="J24" s="29"/>
-      <c r="K24" s="24" t="s">
+      <c r="J24" s="46"/>
+      <c r="K24" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="L24" s="24">
+      <c r="L24" s="20">
         <v>0</v>
       </c>
-      <c r="M24" s="24">
+      <c r="M24" s="20">
         <v>2</v>
       </c>
-      <c r="N24" s="31" t="s">
+      <c r="N24" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="O24" s="24">
+      <c r="O24" s="20">
         <v>100</v>
       </c>
-      <c r="P24" s="32">
+      <c r="P24" s="24">
         <v>14.99</v>
       </c>
-      <c r="Q24" s="33" t="s">
+      <c r="Q24" s="41" t="s">
         <v>157</v>
       </c>
-      <c r="R24" s="41"/>
-      <c r="S24" s="41"/>
-      <c r="T24" s="41"/>
-      <c r="U24" s="41"/>
-      <c r="V24" s="41"/>
-      <c r="W24" s="41"/>
-      <c r="X24" s="41"/>
-      <c r="Y24" s="41"/>
-      <c r="Z24" s="41"/>
-      <c r="AA24" s="41"/>
-      <c r="AB24" s="42"/>
+      <c r="R24" s="42"/>
+      <c r="S24" s="42"/>
+      <c r="T24" s="42"/>
+      <c r="U24" s="42"/>
+      <c r="V24" s="42"/>
+      <c r="W24" s="42"/>
+      <c r="X24" s="42"/>
+      <c r="Y24" s="42"/>
+      <c r="Z24" s="42"/>
+      <c r="AA24" s="42"/>
+      <c r="AB24" s="31"/>
       <c r="AC24" s="6"/>
       <c r="AE24" s="6"/>
       <c r="AF24" s="6"/>
@@ -4448,58 +4448,58 @@
       <c r="CZ24" s="2"/>
     </row>
     <row r="25" spans="1:173" ht="35.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="24">
+      <c r="A25" s="20">
         <v>24</v>
       </c>
-      <c r="B25" s="44" t="s">
+      <c r="B25" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="C25" s="26" t="s">
+      <c r="C25" s="43" t="s">
         <v>89</v>
       </c>
-      <c r="D25" s="26"/>
-      <c r="E25" s="27"/>
-      <c r="F25" s="28"/>
-      <c r="G25" s="26" t="s">
+      <c r="D25" s="43"/>
+      <c r="E25" s="44"/>
+      <c r="F25" s="45"/>
+      <c r="G25" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="H25" s="26"/>
-      <c r="I25" s="29" t="s">
+      <c r="H25" s="43"/>
+      <c r="I25" s="46" t="s">
         <v>87</v>
       </c>
-      <c r="J25" s="29"/>
-      <c r="K25" s="45" t="s">
+      <c r="J25" s="46"/>
+      <c r="K25" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="L25" s="45">
+      <c r="L25" s="34">
         <v>0</v>
       </c>
-      <c r="M25" s="45">
+      <c r="M25" s="34">
         <v>7</v>
       </c>
-      <c r="N25" s="31" t="s">
+      <c r="N25" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="O25" s="45">
+      <c r="O25" s="34">
         <v>100</v>
       </c>
-      <c r="P25" s="32">
+      <c r="P25" s="24">
         <v>9.02</v>
       </c>
-      <c r="Q25" s="46" t="s">
+      <c r="Q25" s="49" t="s">
         <v>109</v>
       </c>
-      <c r="R25" s="47"/>
-      <c r="S25" s="47"/>
-      <c r="T25" s="47"/>
-      <c r="U25" s="47"/>
-      <c r="V25" s="47"/>
-      <c r="W25" s="47"/>
-      <c r="X25" s="47"/>
-      <c r="Y25" s="47"/>
-      <c r="Z25" s="47"/>
-      <c r="AA25" s="47"/>
-      <c r="AB25" s="42"/>
+      <c r="R25" s="50"/>
+      <c r="S25" s="50"/>
+      <c r="T25" s="50"/>
+      <c r="U25" s="50"/>
+      <c r="V25" s="50"/>
+      <c r="W25" s="50"/>
+      <c r="X25" s="50"/>
+      <c r="Y25" s="50"/>
+      <c r="Z25" s="50"/>
+      <c r="AA25" s="50"/>
+      <c r="AB25" s="31"/>
       <c r="AD25" s="6"/>
       <c r="AE25" s="6"/>
       <c r="AF25" s="6"/>
@@ -4576,58 +4576,58 @@
       <c r="CY25" s="2"/>
     </row>
     <row r="26" spans="1:173" ht="35.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A26" s="24">
+      <c r="A26" s="20">
         <v>25</v>
       </c>
-      <c r="B26" s="44" t="s">
+      <c r="B26" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="C26" s="26" t="s">
+      <c r="C26" s="43" t="s">
         <v>71</v>
       </c>
-      <c r="D26" s="26"/>
-      <c r="E26" s="27"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="26" t="s">
+      <c r="D26" s="43"/>
+      <c r="E26" s="44"/>
+      <c r="F26" s="45"/>
+      <c r="G26" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="H26" s="26"/>
-      <c r="I26" s="29" t="s">
+      <c r="H26" s="43"/>
+      <c r="I26" s="46" t="s">
         <v>69</v>
       </c>
-      <c r="J26" s="29"/>
-      <c r="K26" s="45" t="s">
+      <c r="J26" s="46"/>
+      <c r="K26" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="L26" s="45">
+      <c r="L26" s="34">
         <v>0</v>
       </c>
-      <c r="M26" s="45">
+      <c r="M26" s="34">
         <v>1</v>
       </c>
-      <c r="N26" s="31" t="s">
+      <c r="N26" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="O26" s="45">
+      <c r="O26" s="34">
         <v>360</v>
       </c>
-      <c r="P26" s="32">
+      <c r="P26" s="24">
         <v>13.88</v>
       </c>
-      <c r="Q26" s="46" t="s">
+      <c r="Q26" s="49" t="s">
         <v>70</v>
       </c>
-      <c r="R26" s="47"/>
-      <c r="S26" s="47"/>
-      <c r="T26" s="47"/>
-      <c r="U26" s="47"/>
-      <c r="V26" s="47"/>
-      <c r="W26" s="47"/>
-      <c r="X26" s="47"/>
-      <c r="Y26" s="47"/>
-      <c r="Z26" s="47"/>
-      <c r="AA26" s="47"/>
-      <c r="AB26" s="42"/>
+      <c r="R26" s="50"/>
+      <c r="S26" s="50"/>
+      <c r="T26" s="50"/>
+      <c r="U26" s="50"/>
+      <c r="V26" s="50"/>
+      <c r="W26" s="50"/>
+      <c r="X26" s="50"/>
+      <c r="Y26" s="50"/>
+      <c r="Z26" s="50"/>
+      <c r="AA26" s="50"/>
+      <c r="AB26" s="31"/>
       <c r="AD26" s="6"/>
       <c r="AE26" s="6"/>
       <c r="AF26" s="6"/>
@@ -4704,58 +4704,58 @@
       <c r="CY26" s="2"/>
     </row>
     <row r="27" spans="1:173" ht="35.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="24">
+      <c r="A27" s="20">
         <v>26</v>
       </c>
-      <c r="B27" s="44" t="s">
+      <c r="B27" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="C27" s="26" t="s">
+      <c r="C27" s="43" t="s">
         <v>88</v>
       </c>
-      <c r="D27" s="26"/>
-      <c r="E27" s="27"/>
-      <c r="F27" s="28"/>
-      <c r="G27" s="26" t="s">
+      <c r="D27" s="43"/>
+      <c r="E27" s="44"/>
+      <c r="F27" s="45"/>
+      <c r="G27" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="H27" s="26"/>
-      <c r="I27" s="29" t="s">
+      <c r="H27" s="43"/>
+      <c r="I27" s="46" t="s">
         <v>85</v>
       </c>
-      <c r="J27" s="29"/>
-      <c r="K27" s="45" t="s">
+      <c r="J27" s="46"/>
+      <c r="K27" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="L27" s="45">
+      <c r="L27" s="34">
         <v>0</v>
       </c>
-      <c r="M27" s="45">
+      <c r="M27" s="34">
         <v>7</v>
       </c>
-      <c r="N27" s="31" t="s">
+      <c r="N27" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="O27" s="45">
+      <c r="O27" s="34">
         <v>100</v>
       </c>
-      <c r="P27" s="32">
+      <c r="P27" s="24">
         <v>19.489999999999998</v>
       </c>
-      <c r="Q27" s="46" t="s">
+      <c r="Q27" s="49" t="s">
         <v>84</v>
       </c>
-      <c r="R27" s="47"/>
-      <c r="S27" s="47"/>
-      <c r="T27" s="47"/>
-      <c r="U27" s="47"/>
-      <c r="V27" s="47"/>
-      <c r="W27" s="47"/>
-      <c r="X27" s="47"/>
-      <c r="Y27" s="47"/>
-      <c r="Z27" s="47"/>
-      <c r="AA27" s="47"/>
-      <c r="AB27" s="42"/>
+      <c r="R27" s="50"/>
+      <c r="S27" s="50"/>
+      <c r="T27" s="50"/>
+      <c r="U27" s="50"/>
+      <c r="V27" s="50"/>
+      <c r="W27" s="50"/>
+      <c r="X27" s="50"/>
+      <c r="Y27" s="50"/>
+      <c r="Z27" s="50"/>
+      <c r="AA27" s="50"/>
+      <c r="AB27" s="31"/>
       <c r="AC27" s="6"/>
       <c r="AE27" s="6"/>
       <c r="AF27" s="6"/>
@@ -4833,58 +4833,58 @@
       <c r="CZ27" s="2"/>
     </row>
     <row r="28" spans="1:173" ht="55.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="24">
+      <c r="A28" s="20">
         <v>27</v>
       </c>
-      <c r="B28" s="44" t="s">
+      <c r="B28" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="C28" s="26" t="s">
+      <c r="C28" s="43" t="s">
         <v>83</v>
       </c>
-      <c r="D28" s="26"/>
-      <c r="E28" s="27"/>
-      <c r="F28" s="28"/>
-      <c r="G28" s="26" t="s">
+      <c r="D28" s="43"/>
+      <c r="E28" s="44"/>
+      <c r="F28" s="45"/>
+      <c r="G28" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="H28" s="26"/>
-      <c r="I28" s="29" t="s">
+      <c r="H28" s="43"/>
+      <c r="I28" s="46" t="s">
         <v>82</v>
       </c>
-      <c r="J28" s="29"/>
-      <c r="K28" s="45" t="s">
+      <c r="J28" s="46"/>
+      <c r="K28" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="L28" s="45">
+      <c r="L28" s="34">
         <v>0.25</v>
       </c>
-      <c r="M28" s="48">
+      <c r="M28" s="35">
         <v>0.25</v>
       </c>
-      <c r="N28" s="31" t="s">
+      <c r="N28" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="O28" s="45">
+      <c r="O28" s="34">
         <v>1</v>
       </c>
-      <c r="P28" s="32">
+      <c r="P28" s="24">
         <v>30.3</v>
       </c>
-      <c r="Q28" s="46" t="s">
+      <c r="Q28" s="49" t="s">
         <v>86</v>
       </c>
-      <c r="R28" s="47"/>
-      <c r="S28" s="47"/>
-      <c r="T28" s="47"/>
-      <c r="U28" s="47"/>
-      <c r="V28" s="47"/>
-      <c r="W28" s="47"/>
-      <c r="X28" s="47"/>
-      <c r="Y28" s="47"/>
-      <c r="Z28" s="47"/>
-      <c r="AA28" s="47"/>
-      <c r="AB28" s="42"/>
+      <c r="R28" s="50"/>
+      <c r="S28" s="50"/>
+      <c r="T28" s="50"/>
+      <c r="U28" s="50"/>
+      <c r="V28" s="50"/>
+      <c r="W28" s="50"/>
+      <c r="X28" s="50"/>
+      <c r="Y28" s="50"/>
+      <c r="Z28" s="50"/>
+      <c r="AA28" s="50"/>
+      <c r="AB28" s="31"/>
       <c r="AC28" s="6"/>
       <c r="AE28" s="6"/>
       <c r="AF28" s="6"/>
@@ -4962,58 +4962,58 @@
       <c r="CZ28" s="2"/>
     </row>
     <row r="29" spans="1:173" ht="35.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A29" s="24">
+      <c r="A29" s="20">
         <v>28</v>
       </c>
-      <c r="B29" s="44" t="s">
+      <c r="B29" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="C29" s="26" t="s">
+      <c r="C29" s="43" t="s">
         <v>72</v>
       </c>
-      <c r="D29" s="26"/>
-      <c r="E29" s="27"/>
-      <c r="F29" s="28"/>
-      <c r="G29" s="26" t="s">
+      <c r="D29" s="43"/>
+      <c r="E29" s="44"/>
+      <c r="F29" s="45"/>
+      <c r="G29" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="H29" s="26"/>
-      <c r="I29" s="49" t="s">
+      <c r="H29" s="43"/>
+      <c r="I29" s="52" t="s">
         <v>164</v>
       </c>
-      <c r="J29" s="50"/>
-      <c r="K29" s="45" t="s">
+      <c r="J29" s="53"/>
+      <c r="K29" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="L29" s="45">
+      <c r="L29" s="34">
         <v>0</v>
       </c>
-      <c r="M29" s="45">
+      <c r="M29" s="34">
         <v>1</v>
       </c>
-      <c r="N29" s="31" t="s">
+      <c r="N29" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="O29" s="45">
+      <c r="O29" s="34">
         <v>50</v>
       </c>
-      <c r="P29" s="32">
+      <c r="P29" s="24">
         <v>5.52</v>
       </c>
-      <c r="Q29" s="46" t="s">
+      <c r="Q29" s="49" t="s">
         <v>165</v>
       </c>
-      <c r="R29" s="47"/>
-      <c r="S29" s="47"/>
-      <c r="T29" s="47"/>
-      <c r="U29" s="47"/>
-      <c r="V29" s="47"/>
-      <c r="W29" s="47"/>
-      <c r="X29" s="47"/>
-      <c r="Y29" s="47"/>
-      <c r="Z29" s="47"/>
-      <c r="AA29" s="47"/>
-      <c r="AB29" s="42"/>
+      <c r="R29" s="50"/>
+      <c r="S29" s="50"/>
+      <c r="T29" s="50"/>
+      <c r="U29" s="50"/>
+      <c r="V29" s="50"/>
+      <c r="W29" s="50"/>
+      <c r="X29" s="50"/>
+      <c r="Y29" s="50"/>
+      <c r="Z29" s="50"/>
+      <c r="AA29" s="50"/>
+      <c r="AB29" s="31"/>
       <c r="AC29" s="6"/>
       <c r="BD29" s="2"/>
       <c r="BE29" s="2"/>
@@ -5066,58 +5066,58 @@
       <c r="CZ29" s="2"/>
     </row>
     <row r="30" spans="1:173" ht="35.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A30" s="24">
+      <c r="A30" s="20">
         <v>29</v>
       </c>
-      <c r="B30" s="44" t="s">
+      <c r="B30" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="C30" s="26" t="s">
+      <c r="C30" s="43" t="s">
         <v>73</v>
       </c>
-      <c r="D30" s="26"/>
-      <c r="E30" s="27"/>
-      <c r="F30" s="28"/>
-      <c r="G30" s="26" t="s">
+      <c r="D30" s="43"/>
+      <c r="E30" s="44"/>
+      <c r="F30" s="45"/>
+      <c r="G30" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="H30" s="26"/>
-      <c r="I30" s="29" t="s">
+      <c r="H30" s="43"/>
+      <c r="I30" s="46" t="s">
         <v>167</v>
       </c>
-      <c r="J30" s="29"/>
-      <c r="K30" s="45" t="s">
+      <c r="J30" s="46"/>
+      <c r="K30" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="L30" s="45">
+      <c r="L30" s="34">
         <v>0</v>
       </c>
-      <c r="M30" s="45">
+      <c r="M30" s="34">
         <v>1</v>
       </c>
-      <c r="N30" s="31" t="s">
+      <c r="N30" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="O30" s="45">
+      <c r="O30" s="34">
         <v>50</v>
       </c>
-      <c r="P30" s="32">
+      <c r="P30" s="24">
         <v>5.91</v>
       </c>
-      <c r="Q30" s="46" t="s">
+      <c r="Q30" s="49" t="s">
         <v>166</v>
       </c>
-      <c r="R30" s="47"/>
-      <c r="S30" s="47"/>
-      <c r="T30" s="47"/>
-      <c r="U30" s="47"/>
-      <c r="V30" s="47"/>
-      <c r="W30" s="47"/>
-      <c r="X30" s="47"/>
-      <c r="Y30" s="47"/>
-      <c r="Z30" s="47"/>
-      <c r="AA30" s="47"/>
-      <c r="AB30" s="42"/>
+      <c r="R30" s="50"/>
+      <c r="S30" s="50"/>
+      <c r="T30" s="50"/>
+      <c r="U30" s="50"/>
+      <c r="V30" s="50"/>
+      <c r="W30" s="50"/>
+      <c r="X30" s="50"/>
+      <c r="Y30" s="50"/>
+      <c r="Z30" s="50"/>
+      <c r="AA30" s="50"/>
+      <c r="AB30" s="31"/>
       <c r="AC30" s="6"/>
       <c r="BD30" s="2"/>
       <c r="BE30" s="2"/>
@@ -5170,58 +5170,58 @@
       <c r="CZ30" s="2"/>
     </row>
     <row r="31" spans="1:173" ht="55.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A31" s="24">
+      <c r="A31" s="20">
         <v>30</v>
       </c>
-      <c r="B31" s="44" t="s">
+      <c r="B31" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="C31" s="26" t="s">
+      <c r="C31" s="43" t="s">
         <v>94</v>
       </c>
-      <c r="D31" s="26"/>
-      <c r="E31" s="27"/>
-      <c r="F31" s="28"/>
-      <c r="G31" s="26" t="s">
+      <c r="D31" s="43"/>
+      <c r="E31" s="44"/>
+      <c r="F31" s="45"/>
+      <c r="G31" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="H31" s="26"/>
-      <c r="I31" s="29" t="s">
+      <c r="H31" s="43"/>
+      <c r="I31" s="46" t="s">
         <v>95</v>
       </c>
-      <c r="J31" s="29"/>
-      <c r="K31" s="45" t="s">
+      <c r="J31" s="46"/>
+      <c r="K31" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="L31" s="45">
+      <c r="L31" s="34">
         <v>0</v>
       </c>
-      <c r="M31" s="45">
+      <c r="M31" s="34">
         <v>1</v>
       </c>
-      <c r="N31" s="31" t="s">
+      <c r="N31" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="O31" s="45">
+      <c r="O31" s="34">
         <v>100</v>
       </c>
-      <c r="P31" s="32">
+      <c r="P31" s="24">
         <v>2.99</v>
       </c>
-      <c r="Q31" s="46" t="s">
+      <c r="Q31" s="49" t="s">
         <v>96</v>
       </c>
-      <c r="R31" s="47"/>
-      <c r="S31" s="47"/>
-      <c r="T31" s="47"/>
-      <c r="U31" s="47"/>
-      <c r="V31" s="47"/>
-      <c r="W31" s="47"/>
-      <c r="X31" s="47"/>
-      <c r="Y31" s="47"/>
-      <c r="Z31" s="47"/>
-      <c r="AA31" s="47"/>
-      <c r="AB31" s="42"/>
+      <c r="R31" s="50"/>
+      <c r="S31" s="50"/>
+      <c r="T31" s="50"/>
+      <c r="U31" s="50"/>
+      <c r="V31" s="50"/>
+      <c r="W31" s="50"/>
+      <c r="X31" s="50"/>
+      <c r="Y31" s="50"/>
+      <c r="Z31" s="50"/>
+      <c r="AA31" s="50"/>
+      <c r="AB31" s="31"/>
       <c r="AC31" s="6"/>
       <c r="BD31" s="2"/>
       <c r="BE31" s="2"/>
@@ -5274,58 +5274,58 @@
       <c r="CZ31" s="2"/>
     </row>
     <row r="32" spans="1:173" ht="35.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A32" s="24">
+      <c r="A32" s="20">
         <v>31</v>
       </c>
-      <c r="B32" s="44" t="s">
+      <c r="B32" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="C32" s="26" t="s">
+      <c r="C32" s="43" t="s">
         <v>120</v>
       </c>
-      <c r="D32" s="26"/>
-      <c r="E32" s="27"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="26" t="s">
+      <c r="D32" s="43"/>
+      <c r="E32" s="44"/>
+      <c r="F32" s="45"/>
+      <c r="G32" s="43" t="s">
         <v>108</v>
       </c>
-      <c r="H32" s="26"/>
-      <c r="I32" s="26" t="s">
+      <c r="H32" s="43"/>
+      <c r="I32" s="43" t="s">
         <v>101</v>
       </c>
-      <c r="J32" s="26"/>
-      <c r="K32" s="51" t="s">
+      <c r="J32" s="43"/>
+      <c r="K32" s="36" t="s">
         <v>108</v>
       </c>
-      <c r="L32" s="51">
+      <c r="L32" s="36">
         <v>2</v>
       </c>
-      <c r="M32" s="51">
+      <c r="M32" s="36">
         <v>1</v>
       </c>
-      <c r="N32" s="31" t="s">
+      <c r="N32" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="O32" s="51">
+      <c r="O32" s="36">
         <v>1</v>
       </c>
-      <c r="P32" s="32">
+      <c r="P32" s="24">
         <v>49.95</v>
       </c>
-      <c r="Q32" s="52" t="s">
+      <c r="Q32" s="47" t="s">
         <v>102</v>
       </c>
-      <c r="R32" s="53"/>
-      <c r="S32" s="53"/>
-      <c r="T32" s="53"/>
-      <c r="U32" s="53"/>
-      <c r="V32" s="53"/>
-      <c r="W32" s="53"/>
-      <c r="X32" s="53"/>
-      <c r="Y32" s="53"/>
-      <c r="Z32" s="53"/>
-      <c r="AA32" s="53"/>
-      <c r="AB32" s="42"/>
+      <c r="R32" s="51"/>
+      <c r="S32" s="51"/>
+      <c r="T32" s="51"/>
+      <c r="U32" s="51"/>
+      <c r="V32" s="51"/>
+      <c r="W32" s="51"/>
+      <c r="X32" s="51"/>
+      <c r="Y32" s="51"/>
+      <c r="Z32" s="51"/>
+      <c r="AA32" s="51"/>
+      <c r="AB32" s="31"/>
       <c r="AC32" s="6"/>
       <c r="BD32" s="7"/>
       <c r="BE32" s="7"/>
@@ -5447,58 +5447,58 @@
       <c r="FQ32" s="8"/>
     </row>
     <row r="33" spans="1:175" ht="35.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A33" s="24">
+      <c r="A33" s="20">
         <v>32</v>
       </c>
-      <c r="B33" s="44" t="s">
+      <c r="B33" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="C33" s="26" t="s">
+      <c r="C33" s="43" t="s">
         <v>119</v>
       </c>
-      <c r="D33" s="26"/>
-      <c r="E33" s="27"/>
-      <c r="F33" s="28"/>
-      <c r="G33" s="26" t="s">
+      <c r="D33" s="43"/>
+      <c r="E33" s="44"/>
+      <c r="F33" s="45"/>
+      <c r="G33" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="H33" s="26"/>
-      <c r="I33" s="26" t="s">
+      <c r="H33" s="43"/>
+      <c r="I33" s="43" t="s">
         <v>103</v>
       </c>
-      <c r="J33" s="26"/>
-      <c r="K33" s="51" t="s">
+      <c r="J33" s="43"/>
+      <c r="K33" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="L33" s="51">
+      <c r="L33" s="36">
         <v>4</v>
       </c>
-      <c r="M33" s="51">
+      <c r="M33" s="36">
         <v>1</v>
       </c>
-      <c r="N33" s="31" t="s">
+      <c r="N33" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="O33" s="51">
+      <c r="O33" s="36">
         <v>10</v>
       </c>
-      <c r="P33" s="32">
+      <c r="P33" s="24">
         <v>12.76</v>
       </c>
-      <c r="Q33" s="52" t="s">
+      <c r="Q33" s="47" t="s">
         <v>104</v>
       </c>
-      <c r="R33" s="53"/>
-      <c r="S33" s="53"/>
-      <c r="T33" s="53"/>
-      <c r="U33" s="53"/>
-      <c r="V33" s="53"/>
-      <c r="W33" s="53"/>
-      <c r="X33" s="53"/>
-      <c r="Y33" s="53"/>
-      <c r="Z33" s="53"/>
-      <c r="AA33" s="53"/>
-      <c r="AB33" s="42"/>
+      <c r="R33" s="51"/>
+      <c r="S33" s="51"/>
+      <c r="T33" s="51"/>
+      <c r="U33" s="51"/>
+      <c r="V33" s="51"/>
+      <c r="W33" s="51"/>
+      <c r="X33" s="51"/>
+      <c r="Y33" s="51"/>
+      <c r="Z33" s="51"/>
+      <c r="AA33" s="51"/>
+      <c r="AB33" s="31"/>
       <c r="AC33" s="6"/>
       <c r="BD33" s="7"/>
       <c r="BE33" s="7"/>
@@ -5620,58 +5620,58 @@
       <c r="FQ33" s="8"/>
     </row>
     <row r="34" spans="1:175" ht="35.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A34" s="24">
+      <c r="A34" s="20">
         <v>33</v>
       </c>
-      <c r="B34" s="44" t="s">
+      <c r="B34" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="C34" s="26" t="s">
+      <c r="C34" s="43" t="s">
         <v>118</v>
       </c>
-      <c r="D34" s="26"/>
-      <c r="E34" s="27"/>
-      <c r="F34" s="28"/>
-      <c r="G34" s="26" t="s">
+      <c r="D34" s="43"/>
+      <c r="E34" s="44"/>
+      <c r="F34" s="45"/>
+      <c r="G34" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="H34" s="26"/>
-      <c r="I34" s="26" t="s">
+      <c r="H34" s="43"/>
+      <c r="I34" s="43" t="s">
         <v>105</v>
       </c>
-      <c r="J34" s="26"/>
-      <c r="K34" s="51" t="s">
+      <c r="J34" s="43"/>
+      <c r="K34" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="L34" s="51">
+      <c r="L34" s="36">
         <v>7</v>
       </c>
-      <c r="M34" s="51">
+      <c r="M34" s="36">
         <v>2</v>
       </c>
-      <c r="N34" s="31" t="s">
+      <c r="N34" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="O34" s="51">
+      <c r="O34" s="36">
         <v>10</v>
       </c>
-      <c r="P34" s="32">
+      <c r="P34" s="24">
         <v>14.02</v>
       </c>
-      <c r="Q34" s="52" t="s">
+      <c r="Q34" s="47" t="s">
         <v>106</v>
       </c>
-      <c r="R34" s="53"/>
-      <c r="S34" s="53"/>
-      <c r="T34" s="53"/>
-      <c r="U34" s="53"/>
-      <c r="V34" s="53"/>
-      <c r="W34" s="53"/>
-      <c r="X34" s="53"/>
-      <c r="Y34" s="53"/>
-      <c r="Z34" s="53"/>
-      <c r="AA34" s="53"/>
-      <c r="AB34" s="42"/>
+      <c r="R34" s="51"/>
+      <c r="S34" s="51"/>
+      <c r="T34" s="51"/>
+      <c r="U34" s="51"/>
+      <c r="V34" s="51"/>
+      <c r="W34" s="51"/>
+      <c r="X34" s="51"/>
+      <c r="Y34" s="51"/>
+      <c r="Z34" s="51"/>
+      <c r="AA34" s="51"/>
+      <c r="AB34" s="31"/>
       <c r="AC34" s="7"/>
       <c r="AD34" s="7"/>
       <c r="AE34" s="7"/>
@@ -5757,58 +5757,58 @@
       <c r="DG34" s="8"/>
     </row>
     <row r="35" spans="1:175" s="1" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A35" s="24">
+      <c r="A35" s="20">
         <v>34</v>
       </c>
-      <c r="B35" s="44" t="s">
+      <c r="B35" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="C35" s="26" t="s">
+      <c r="C35" s="43" t="s">
         <v>117</v>
       </c>
-      <c r="D35" s="26"/>
-      <c r="E35" s="27"/>
-      <c r="F35" s="28"/>
-      <c r="G35" s="26" t="s">
+      <c r="D35" s="43"/>
+      <c r="E35" s="44"/>
+      <c r="F35" s="45"/>
+      <c r="G35" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="H35" s="26"/>
-      <c r="I35" s="29" t="s">
+      <c r="H35" s="43"/>
+      <c r="I35" s="46" t="s">
         <v>54</v>
       </c>
-      <c r="J35" s="29"/>
-      <c r="K35" s="51" t="s">
+      <c r="J35" s="46"/>
+      <c r="K35" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="L35" s="51">
+      <c r="L35" s="36">
         <v>1</v>
       </c>
-      <c r="M35" s="51">
+      <c r="M35" s="36">
         <v>1</v>
       </c>
-      <c r="N35" s="31" t="s">
+      <c r="N35" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="O35" s="51">
+      <c r="O35" s="36">
         <v>1</v>
       </c>
-      <c r="P35" s="32">
+      <c r="P35" s="24">
         <v>32</v>
       </c>
-      <c r="Q35" s="52" t="s">
+      <c r="Q35" s="47" t="s">
         <v>130</v>
       </c>
-      <c r="R35" s="54"/>
-      <c r="S35" s="54"/>
-      <c r="T35" s="54"/>
-      <c r="U35" s="54"/>
-      <c r="V35" s="54"/>
-      <c r="W35" s="54"/>
-      <c r="X35" s="54"/>
-      <c r="Y35" s="54"/>
-      <c r="Z35" s="54"/>
-      <c r="AA35" s="54"/>
-      <c r="AB35" s="42"/>
+      <c r="R35" s="48"/>
+      <c r="S35" s="48"/>
+      <c r="T35" s="48"/>
+      <c r="U35" s="48"/>
+      <c r="V35" s="48"/>
+      <c r="W35" s="48"/>
+      <c r="X35" s="48"/>
+      <c r="Y35" s="48"/>
+      <c r="Z35" s="48"/>
+      <c r="AA35" s="48"/>
+      <c r="AB35" s="31"/>
       <c r="AC35" s="7"/>
       <c r="AD35" s="7"/>
       <c r="AE35" s="7"/>
@@ -5893,58 +5893,58 @@
       <c r="DF35" s="8"/>
     </row>
     <row r="36" spans="1:175" s="1" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A36" s="24">
+      <c r="A36" s="20">
         <v>35</v>
       </c>
-      <c r="B36" s="44" t="s">
+      <c r="B36" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="C36" s="26" t="s">
+      <c r="C36" s="43" t="s">
         <v>116</v>
       </c>
-      <c r="D36" s="26"/>
-      <c r="E36" s="27"/>
-      <c r="F36" s="28"/>
-      <c r="G36" s="26" t="s">
+      <c r="D36" s="43"/>
+      <c r="E36" s="44"/>
+      <c r="F36" s="45"/>
+      <c r="G36" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="H36" s="26"/>
-      <c r="I36" s="26" t="s">
+      <c r="H36" s="43"/>
+      <c r="I36" s="43" t="s">
         <v>123</v>
       </c>
-      <c r="J36" s="26"/>
-      <c r="K36" s="51" t="s">
+      <c r="J36" s="43"/>
+      <c r="K36" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="L36" s="51">
+      <c r="L36" s="36">
         <v>0</v>
       </c>
-      <c r="M36" s="51">
+      <c r="M36" s="36">
         <v>1</v>
       </c>
-      <c r="N36" s="31" t="s">
+      <c r="N36" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="O36" s="51">
+      <c r="O36" s="36">
         <v>1</v>
       </c>
-      <c r="P36" s="32">
+      <c r="P36" s="24">
         <v>15</v>
       </c>
-      <c r="Q36" s="52" t="s">
+      <c r="Q36" s="47" t="s">
         <v>124</v>
       </c>
-      <c r="R36" s="53"/>
-      <c r="S36" s="53"/>
-      <c r="T36" s="53"/>
-      <c r="U36" s="53"/>
-      <c r="V36" s="53"/>
-      <c r="W36" s="53"/>
-      <c r="X36" s="53"/>
-      <c r="Y36" s="53"/>
-      <c r="Z36" s="53"/>
-      <c r="AA36" s="53"/>
-      <c r="AB36" s="42"/>
+      <c r="R36" s="51"/>
+      <c r="S36" s="51"/>
+      <c r="T36" s="51"/>
+      <c r="U36" s="51"/>
+      <c r="V36" s="51"/>
+      <c r="W36" s="51"/>
+      <c r="X36" s="51"/>
+      <c r="Y36" s="51"/>
+      <c r="Z36" s="51"/>
+      <c r="AA36" s="51"/>
+      <c r="AB36" s="31"/>
       <c r="AC36" s="7"/>
       <c r="AD36" s="7"/>
       <c r="AE36" s="7"/>
@@ -6029,58 +6029,58 @@
       <c r="DF36" s="8"/>
     </row>
     <row r="37" spans="1:175" s="1" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A37" s="24">
+      <c r="A37" s="20">
         <v>36</v>
       </c>
-      <c r="B37" s="44" t="s">
+      <c r="B37" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="C37" s="26" t="s">
+      <c r="C37" s="43" t="s">
         <v>113</v>
       </c>
-      <c r="D37" s="26"/>
-      <c r="E37" s="27"/>
-      <c r="F37" s="28"/>
-      <c r="G37" s="26" t="s">
+      <c r="D37" s="43"/>
+      <c r="E37" s="44"/>
+      <c r="F37" s="45"/>
+      <c r="G37" s="43" t="s">
         <v>122</v>
       </c>
-      <c r="H37" s="26"/>
-      <c r="I37" s="26" t="s">
+      <c r="H37" s="43"/>
+      <c r="I37" s="43" t="s">
         <v>112</v>
       </c>
-      <c r="J37" s="26"/>
-      <c r="K37" s="51" t="s">
+      <c r="J37" s="43"/>
+      <c r="K37" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="L37" s="51">
+      <c r="L37" s="36">
         <v>25</v>
       </c>
-      <c r="M37" s="51">
+      <c r="M37" s="36">
         <v>1</v>
       </c>
-      <c r="N37" s="31" t="s">
+      <c r="N37" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="O37" s="51">
+      <c r="O37" s="36">
         <v>400</v>
       </c>
-      <c r="P37" s="32">
+      <c r="P37" s="24">
         <v>5.99</v>
       </c>
-      <c r="Q37" s="52" t="s">
+      <c r="Q37" s="47" t="s">
         <v>111</v>
       </c>
-      <c r="R37" s="53"/>
-      <c r="S37" s="53"/>
-      <c r="T37" s="53"/>
-      <c r="U37" s="53"/>
-      <c r="V37" s="53"/>
-      <c r="W37" s="53"/>
-      <c r="X37" s="53"/>
-      <c r="Y37" s="53"/>
-      <c r="Z37" s="53"/>
-      <c r="AA37" s="53"/>
-      <c r="AB37" s="42"/>
+      <c r="R37" s="51"/>
+      <c r="S37" s="51"/>
+      <c r="T37" s="51"/>
+      <c r="U37" s="51"/>
+      <c r="V37" s="51"/>
+      <c r="W37" s="51"/>
+      <c r="X37" s="51"/>
+      <c r="Y37" s="51"/>
+      <c r="Z37" s="51"/>
+      <c r="AA37" s="51"/>
+      <c r="AB37" s="31"/>
       <c r="AC37" s="7"/>
       <c r="AD37" s="7"/>
       <c r="AE37" s="7"/>
@@ -6165,54 +6165,54 @@
       <c r="DF37" s="8"/>
     </row>
     <row r="38" spans="1:175" s="1" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A38" s="24">
+      <c r="A38" s="20">
         <v>37</v>
       </c>
-      <c r="B38" s="44" t="s">
+      <c r="B38" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="C38" s="26" t="s">
+      <c r="C38" s="43" t="s">
         <v>114</v>
       </c>
-      <c r="D38" s="26"/>
-      <c r="E38" s="27"/>
-      <c r="F38" s="28"/>
-      <c r="G38" s="26" t="s">
+      <c r="D38" s="43"/>
+      <c r="E38" s="44"/>
+      <c r="F38" s="45"/>
+      <c r="G38" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="H38" s="26"/>
-      <c r="I38" s="26"/>
-      <c r="J38" s="26"/>
-      <c r="K38" s="51" t="s">
+      <c r="H38" s="43"/>
+      <c r="I38" s="43"/>
+      <c r="J38" s="43"/>
+      <c r="K38" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="L38" s="51">
+      <c r="L38" s="36">
         <v>1</v>
       </c>
-      <c r="M38" s="51">
+      <c r="M38" s="36">
         <v>1</v>
       </c>
-      <c r="N38" s="55" t="s">
+      <c r="N38" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="O38" s="51">
+      <c r="O38" s="36">
         <v>1</v>
       </c>
-      <c r="P38" s="32">
+      <c r="P38" s="24">
         <v>0.01</v>
       </c>
-      <c r="Q38" s="52"/>
-      <c r="R38" s="52"/>
-      <c r="S38" s="52"/>
-      <c r="T38" s="52"/>
-      <c r="U38" s="52"/>
-      <c r="V38" s="52"/>
-      <c r="W38" s="52"/>
-      <c r="X38" s="52"/>
-      <c r="Y38" s="52"/>
-      <c r="Z38" s="52"/>
-      <c r="AA38" s="52"/>
-      <c r="AB38" s="58" t="s">
+      <c r="Q38" s="47"/>
+      <c r="R38" s="47"/>
+      <c r="S38" s="47"/>
+      <c r="T38" s="47"/>
+      <c r="U38" s="47"/>
+      <c r="V38" s="47"/>
+      <c r="W38" s="47"/>
+      <c r="X38" s="47"/>
+      <c r="Y38" s="47"/>
+      <c r="Z38" s="47"/>
+      <c r="AA38" s="47"/>
+      <c r="AB38" s="59" t="s">
         <v>173</v>
       </c>
       <c r="AC38" s="7"/>
@@ -6299,54 +6299,54 @@
       <c r="DF38" s="8"/>
     </row>
     <row r="39" spans="1:175" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A39" s="24">
+      <c r="A39" s="20">
         <v>38</v>
       </c>
-      <c r="B39" s="44" t="s">
+      <c r="B39" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="C39" s="26" t="s">
+      <c r="C39" s="43" t="s">
         <v>110</v>
       </c>
-      <c r="D39" s="26"/>
-      <c r="E39" s="27"/>
-      <c r="F39" s="28"/>
-      <c r="G39" s="26" t="s">
+      <c r="D39" s="43"/>
+      <c r="E39" s="44"/>
+      <c r="F39" s="45"/>
+      <c r="G39" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="H39" s="26"/>
-      <c r="I39" s="26"/>
-      <c r="J39" s="26"/>
-      <c r="K39" s="51" t="s">
+      <c r="H39" s="43"/>
+      <c r="I39" s="43"/>
+      <c r="J39" s="43"/>
+      <c r="K39" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="L39" s="51">
+      <c r="L39" s="36">
         <v>1</v>
       </c>
-      <c r="M39" s="51">
+      <c r="M39" s="36">
         <v>1</v>
       </c>
-      <c r="N39" s="55" t="s">
+      <c r="N39" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="O39" s="51">
+      <c r="O39" s="36">
         <v>1</v>
       </c>
-      <c r="P39" s="32">
+      <c r="P39" s="24">
         <v>0.01</v>
       </c>
-      <c r="Q39" s="52"/>
-      <c r="R39" s="53"/>
-      <c r="S39" s="53"/>
-      <c r="T39" s="53"/>
-      <c r="U39" s="53"/>
-      <c r="V39" s="53"/>
-      <c r="W39" s="53"/>
-      <c r="X39" s="53"/>
-      <c r="Y39" s="53"/>
-      <c r="Z39" s="53"/>
-      <c r="AA39" s="53"/>
-      <c r="AB39" s="58" t="s">
+      <c r="Q39" s="47"/>
+      <c r="R39" s="51"/>
+      <c r="S39" s="51"/>
+      <c r="T39" s="51"/>
+      <c r="U39" s="51"/>
+      <c r="V39" s="51"/>
+      <c r="W39" s="51"/>
+      <c r="X39" s="51"/>
+      <c r="Y39" s="51"/>
+      <c r="Z39" s="51"/>
+      <c r="AA39" s="51"/>
+      <c r="AB39" s="59" t="s">
         <v>173</v>
       </c>
       <c r="AC39" s="7"/>
@@ -6433,34 +6433,34 @@
       <c r="DF39" s="8"/>
     </row>
     <row r="40" spans="1:175" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A40" s="38"/>
-      <c r="B40" s="38"/>
-      <c r="C40" s="38"/>
-      <c r="D40" s="38"/>
-      <c r="E40" s="38"/>
-      <c r="F40" s="38"/>
-      <c r="G40" s="38"/>
-      <c r="H40" s="38"/>
-      <c r="I40" s="38"/>
-      <c r="J40" s="38"/>
-      <c r="K40" s="38"/>
-      <c r="L40" s="38"/>
-      <c r="M40" s="38"/>
-      <c r="N40" s="38"/>
-      <c r="O40" s="38"/>
-      <c r="P40" s="38"/>
-      <c r="Q40" s="38"/>
-      <c r="R40" s="38"/>
-      <c r="S40" s="38"/>
-      <c r="T40" s="38"/>
-      <c r="U40" s="38"/>
-      <c r="V40" s="38"/>
-      <c r="W40" s="38"/>
-      <c r="X40" s="38"/>
-      <c r="Y40" s="38"/>
-      <c r="Z40" s="38"/>
-      <c r="AA40" s="38"/>
-      <c r="AB40" s="38"/>
+      <c r="A40" s="29"/>
+      <c r="B40" s="29"/>
+      <c r="C40" s="29"/>
+      <c r="D40" s="29"/>
+      <c r="E40" s="29"/>
+      <c r="F40" s="29"/>
+      <c r="G40" s="29"/>
+      <c r="H40" s="29"/>
+      <c r="I40" s="29"/>
+      <c r="J40" s="29"/>
+      <c r="K40" s="29"/>
+      <c r="L40" s="29"/>
+      <c r="M40" s="29"/>
+      <c r="N40" s="29"/>
+      <c r="O40" s="29"/>
+      <c r="P40" s="29"/>
+      <c r="Q40" s="29"/>
+      <c r="R40" s="29"/>
+      <c r="S40" s="29"/>
+      <c r="T40" s="29"/>
+      <c r="U40" s="29"/>
+      <c r="V40" s="29"/>
+      <c r="W40" s="29"/>
+      <c r="X40" s="29"/>
+      <c r="Y40" s="29"/>
+      <c r="Z40" s="29"/>
+      <c r="AA40" s="29"/>
+      <c r="AB40" s="29"/>
       <c r="AC40" s="7"/>
       <c r="AD40" s="7"/>
       <c r="AE40" s="7"/>
@@ -6545,34 +6545,34 @@
       <c r="DF40" s="8"/>
     </row>
     <row r="41" spans="1:175" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A41" s="38"/>
-      <c r="B41" s="38"/>
-      <c r="C41" s="38"/>
-      <c r="D41" s="38"/>
-      <c r="E41" s="38"/>
-      <c r="F41" s="38"/>
-      <c r="G41" s="38"/>
-      <c r="H41" s="38"/>
-      <c r="I41" s="38"/>
-      <c r="J41" s="38"/>
-      <c r="K41" s="38"/>
-      <c r="L41" s="38"/>
-      <c r="M41" s="38"/>
-      <c r="N41" s="38"/>
-      <c r="O41" s="38"/>
-      <c r="P41" s="38"/>
-      <c r="Q41" s="38"/>
-      <c r="R41" s="38"/>
-      <c r="S41" s="38"/>
-      <c r="T41" s="38"/>
-      <c r="U41" s="38"/>
-      <c r="V41" s="38"/>
-      <c r="W41" s="38"/>
-      <c r="X41" s="38"/>
-      <c r="Y41" s="38"/>
-      <c r="Z41" s="38"/>
-      <c r="AA41" s="38"/>
-      <c r="AB41" s="38"/>
+      <c r="A41" s="29"/>
+      <c r="B41" s="29"/>
+      <c r="C41" s="29"/>
+      <c r="D41" s="29"/>
+      <c r="E41" s="29"/>
+      <c r="F41" s="29"/>
+      <c r="G41" s="29"/>
+      <c r="H41" s="29"/>
+      <c r="I41" s="29"/>
+      <c r="J41" s="29"/>
+      <c r="K41" s="29"/>
+      <c r="L41" s="29"/>
+      <c r="M41" s="29"/>
+      <c r="N41" s="29"/>
+      <c r="O41" s="29"/>
+      <c r="P41" s="29"/>
+      <c r="Q41" s="29"/>
+      <c r="R41" s="29"/>
+      <c r="S41" s="29"/>
+      <c r="T41" s="29"/>
+      <c r="U41" s="29"/>
+      <c r="V41" s="29"/>
+      <c r="W41" s="29"/>
+      <c r="X41" s="29"/>
+      <c r="Y41" s="29"/>
+      <c r="Z41" s="29"/>
+      <c r="AA41" s="29"/>
+      <c r="AB41" s="29"/>
       <c r="AC41" s="7"/>
       <c r="AD41" s="7"/>
       <c r="AE41" s="7"/>
@@ -6657,58 +6657,58 @@
       <c r="DF41" s="8"/>
     </row>
     <row r="42" spans="1:175" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A42" s="24">
+      <c r="A42" s="20">
         <v>0</v>
       </c>
-      <c r="B42" s="25" t="s">
+      <c r="B42" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="C42" s="26" t="s">
+      <c r="C42" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="D42" s="26"/>
-      <c r="E42" s="27"/>
-      <c r="F42" s="28"/>
-      <c r="G42" s="26" t="s">
+      <c r="D42" s="43"/>
+      <c r="E42" s="44"/>
+      <c r="F42" s="45"/>
+      <c r="G42" s="43" t="s">
         <v>160</v>
       </c>
-      <c r="H42" s="26"/>
-      <c r="I42" s="29" t="s">
+      <c r="H42" s="43"/>
+      <c r="I42" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="J42" s="29"/>
-      <c r="K42" s="24" t="s">
+      <c r="J42" s="46"/>
+      <c r="K42" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="L42" s="30" t="s">
+      <c r="L42" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="M42" s="24">
+      <c r="M42" s="20">
         <v>1</v>
       </c>
-      <c r="N42" s="55" t="s">
+      <c r="N42" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="O42" s="24">
+      <c r="O42" s="20">
         <v>1</v>
       </c>
-      <c r="P42" s="32">
+      <c r="P42" s="24">
         <v>170.33</v>
       </c>
-      <c r="Q42" s="33" t="s">
+      <c r="Q42" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="R42" s="33"/>
-      <c r="S42" s="33"/>
-      <c r="T42" s="33"/>
-      <c r="U42" s="33"/>
-      <c r="V42" s="33"/>
-      <c r="W42" s="33"/>
-      <c r="X42" s="33"/>
-      <c r="Y42" s="33"/>
-      <c r="Z42" s="33"/>
-      <c r="AA42" s="33"/>
-      <c r="AB42" s="56" t="s">
+      <c r="R42" s="41"/>
+      <c r="S42" s="41"/>
+      <c r="T42" s="41"/>
+      <c r="U42" s="41"/>
+      <c r="V42" s="41"/>
+      <c r="W42" s="41"/>
+      <c r="X42" s="41"/>
+      <c r="Y42" s="41"/>
+      <c r="Z42" s="41"/>
+      <c r="AA42" s="41"/>
+      <c r="AB42" s="38" t="s">
         <v>125</v>
       </c>
       <c r="AC42" s="7"/>
@@ -6795,58 +6795,58 @@
       <c r="DF42" s="8"/>
     </row>
     <row r="43" spans="1:175" ht="35.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A43" s="24">
+      <c r="A43" s="20">
         <v>0</v>
       </c>
-      <c r="B43" s="25" t="s">
+      <c r="B43" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="C43" s="26" t="s">
+      <c r="C43" s="43" t="s">
         <v>47</v>
       </c>
-      <c r="D43" s="26"/>
-      <c r="E43" s="27"/>
-      <c r="F43" s="28"/>
-      <c r="G43" s="26" t="s">
+      <c r="D43" s="43"/>
+      <c r="E43" s="44"/>
+      <c r="F43" s="45"/>
+      <c r="G43" s="43" t="s">
         <v>160</v>
       </c>
-      <c r="H43" s="26"/>
-      <c r="I43" s="29" t="s">
+      <c r="H43" s="43"/>
+      <c r="I43" s="46" t="s">
         <v>50</v>
       </c>
-      <c r="J43" s="29"/>
-      <c r="K43" s="24" t="s">
+      <c r="J43" s="46"/>
+      <c r="K43" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="L43" s="30" t="s">
+      <c r="L43" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="M43" s="24">
+      <c r="M43" s="20">
         <v>1</v>
       </c>
-      <c r="N43" s="55" t="s">
+      <c r="N43" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="O43" s="24">
+      <c r="O43" s="20">
         <v>1</v>
       </c>
-      <c r="P43" s="32">
+      <c r="P43" s="24">
         <v>137.94</v>
       </c>
-      <c r="Q43" s="33" t="s">
+      <c r="Q43" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="R43" s="33"/>
-      <c r="S43" s="33"/>
-      <c r="T43" s="33"/>
-      <c r="U43" s="33"/>
-      <c r="V43" s="33"/>
-      <c r="W43" s="33"/>
-      <c r="X43" s="33"/>
-      <c r="Y43" s="33"/>
-      <c r="Z43" s="33"/>
-      <c r="AA43" s="33"/>
-      <c r="AB43" s="56" t="s">
+      <c r="R43" s="41"/>
+      <c r="S43" s="41"/>
+      <c r="T43" s="41"/>
+      <c r="U43" s="41"/>
+      <c r="V43" s="41"/>
+      <c r="W43" s="41"/>
+      <c r="X43" s="41"/>
+      <c r="Y43" s="41"/>
+      <c r="Z43" s="41"/>
+      <c r="AA43" s="41"/>
+      <c r="AB43" s="38" t="s">
         <v>125</v>
       </c>
       <c r="AC43" s="6"/>
@@ -6973,34 +6973,34 @@
       <c r="FS43" s="8"/>
     </row>
     <row r="44" spans="1:175" x14ac:dyDescent="0.45">
-      <c r="A44" s="38"/>
-      <c r="B44" s="38"/>
-      <c r="C44" s="38"/>
-      <c r="D44" s="38"/>
-      <c r="E44" s="38"/>
-      <c r="F44" s="38"/>
-      <c r="G44" s="38"/>
-      <c r="H44" s="38"/>
-      <c r="I44" s="38"/>
-      <c r="J44" s="38"/>
-      <c r="K44" s="38"/>
-      <c r="L44" s="38"/>
-      <c r="M44" s="38"/>
-      <c r="N44" s="38"/>
-      <c r="O44" s="38"/>
-      <c r="P44" s="38"/>
-      <c r="Q44" s="38"/>
-      <c r="R44" s="38"/>
-      <c r="S44" s="38"/>
-      <c r="T44" s="38"/>
-      <c r="U44" s="38"/>
-      <c r="V44" s="38"/>
-      <c r="W44" s="38"/>
-      <c r="X44" s="38"/>
-      <c r="Y44" s="38"/>
-      <c r="Z44" s="38"/>
-      <c r="AA44" s="38"/>
-      <c r="AB44" s="38"/>
+      <c r="A44" s="29"/>
+      <c r="B44" s="29"/>
+      <c r="C44" s="29"/>
+      <c r="D44" s="29"/>
+      <c r="E44" s="29"/>
+      <c r="F44" s="29"/>
+      <c r="G44" s="29"/>
+      <c r="H44" s="29"/>
+      <c r="I44" s="29"/>
+      <c r="J44" s="29"/>
+      <c r="K44" s="29"/>
+      <c r="L44" s="29"/>
+      <c r="M44" s="29"/>
+      <c r="N44" s="29"/>
+      <c r="O44" s="29"/>
+      <c r="P44" s="29"/>
+      <c r="Q44" s="29"/>
+      <c r="R44" s="29"/>
+      <c r="S44" s="29"/>
+      <c r="T44" s="29"/>
+      <c r="U44" s="29"/>
+      <c r="V44" s="29"/>
+      <c r="W44" s="29"/>
+      <c r="X44" s="29"/>
+      <c r="Y44" s="29"/>
+      <c r="Z44" s="29"/>
+      <c r="AA44" s="29"/>
+      <c r="AB44" s="29"/>
       <c r="AC44" s="7"/>
       <c r="AD44" s="7"/>
       <c r="AF44" s="7"/>
@@ -7149,34 +7149,34 @@
       <c r="FS44" s="8"/>
     </row>
     <row r="45" spans="1:175" x14ac:dyDescent="0.45">
-      <c r="A45" s="38"/>
-      <c r="B45" s="57"/>
-      <c r="C45" s="57"/>
-      <c r="D45" s="57"/>
-      <c r="E45" s="57"/>
-      <c r="F45" s="57"/>
-      <c r="G45" s="57"/>
-      <c r="H45" s="57"/>
-      <c r="I45" s="38"/>
-      <c r="J45" s="38"/>
-      <c r="K45" s="38"/>
-      <c r="L45" s="38"/>
-      <c r="M45" s="38"/>
-      <c r="N45" s="38"/>
-      <c r="O45" s="38"/>
-      <c r="P45" s="38"/>
-      <c r="Q45" s="38"/>
-      <c r="R45" s="38"/>
-      <c r="S45" s="38"/>
-      <c r="T45" s="38"/>
-      <c r="U45" s="38"/>
-      <c r="V45" s="38"/>
-      <c r="W45" s="38"/>
-      <c r="X45" s="38"/>
-      <c r="Y45" s="38"/>
-      <c r="Z45" s="38"/>
-      <c r="AA45" s="38"/>
-      <c r="AB45" s="38"/>
+      <c r="A45" s="29"/>
+      <c r="B45" s="39"/>
+      <c r="C45" s="39"/>
+      <c r="D45" s="39"/>
+      <c r="E45" s="39"/>
+      <c r="F45" s="39"/>
+      <c r="G45" s="39"/>
+      <c r="H45" s="39"/>
+      <c r="I45" s="29"/>
+      <c r="J45" s="29"/>
+      <c r="K45" s="29"/>
+      <c r="L45" s="29"/>
+      <c r="M45" s="29"/>
+      <c r="N45" s="29"/>
+      <c r="O45" s="29"/>
+      <c r="P45" s="29"/>
+      <c r="Q45" s="29"/>
+      <c r="R45" s="29"/>
+      <c r="S45" s="29"/>
+      <c r="T45" s="29"/>
+      <c r="U45" s="29"/>
+      <c r="V45" s="29"/>
+      <c r="W45" s="29"/>
+      <c r="X45" s="29"/>
+      <c r="Y45" s="29"/>
+      <c r="Z45" s="29"/>
+      <c r="AA45" s="29"/>
+      <c r="AB45" s="29"/>
       <c r="AC45" s="2"/>
       <c r="AD45" s="2"/>
       <c r="AE45" s="2"/>
@@ -7257,34 +7257,34 @@
       <c r="DB45" s="2"/>
     </row>
     <row r="46" spans="1:175" x14ac:dyDescent="0.45">
-      <c r="A46" s="38"/>
-      <c r="B46" s="57"/>
-      <c r="C46" s="57"/>
-      <c r="D46" s="57"/>
-      <c r="E46" s="57"/>
-      <c r="F46" s="57"/>
-      <c r="G46" s="57"/>
-      <c r="H46" s="57"/>
-      <c r="I46" s="38"/>
-      <c r="J46" s="38"/>
-      <c r="K46" s="38"/>
-      <c r="L46" s="38"/>
-      <c r="M46" s="38"/>
-      <c r="N46" s="38"/>
-      <c r="O46" s="38"/>
-      <c r="P46" s="38"/>
-      <c r="Q46" s="38"/>
-      <c r="R46" s="38"/>
-      <c r="S46" s="38"/>
-      <c r="T46" s="38"/>
-      <c r="U46" s="38"/>
-      <c r="V46" s="38"/>
-      <c r="W46" s="38"/>
-      <c r="X46" s="38"/>
-      <c r="Y46" s="38"/>
-      <c r="Z46" s="38"/>
-      <c r="AA46" s="38"/>
-      <c r="AB46" s="38"/>
+      <c r="A46" s="29"/>
+      <c r="B46" s="39"/>
+      <c r="C46" s="39"/>
+      <c r="D46" s="39"/>
+      <c r="E46" s="39"/>
+      <c r="F46" s="39"/>
+      <c r="G46" s="39"/>
+      <c r="H46" s="39"/>
+      <c r="I46" s="29"/>
+      <c r="J46" s="29"/>
+      <c r="K46" s="29"/>
+      <c r="L46" s="29"/>
+      <c r="M46" s="29"/>
+      <c r="N46" s="29"/>
+      <c r="O46" s="29"/>
+      <c r="P46" s="29"/>
+      <c r="Q46" s="29"/>
+      <c r="R46" s="29"/>
+      <c r="S46" s="29"/>
+      <c r="T46" s="29"/>
+      <c r="U46" s="29"/>
+      <c r="V46" s="29"/>
+      <c r="W46" s="29"/>
+      <c r="X46" s="29"/>
+      <c r="Y46" s="29"/>
+      <c r="Z46" s="29"/>
+      <c r="AA46" s="29"/>
+      <c r="AB46" s="29"/>
       <c r="AC46" s="2"/>
       <c r="AD46" s="2"/>
       <c r="AE46" s="2"/>
@@ -7365,34 +7365,34 @@
       <c r="DB46" s="2"/>
     </row>
     <row r="47" spans="1:175" x14ac:dyDescent="0.45">
-      <c r="A47" s="38"/>
-      <c r="B47" s="57"/>
-      <c r="C47" s="57"/>
-      <c r="D47" s="57"/>
-      <c r="E47" s="57"/>
-      <c r="F47" s="57"/>
-      <c r="G47" s="57"/>
-      <c r="H47" s="57"/>
-      <c r="I47" s="38"/>
-      <c r="J47" s="38"/>
-      <c r="K47" s="38"/>
-      <c r="L47" s="38"/>
-      <c r="M47" s="38"/>
-      <c r="N47" s="38"/>
-      <c r="O47" s="38"/>
-      <c r="P47" s="38"/>
-      <c r="Q47" s="38"/>
-      <c r="R47" s="38"/>
-      <c r="S47" s="38"/>
-      <c r="T47" s="38"/>
-      <c r="U47" s="38"/>
-      <c r="V47" s="38"/>
-      <c r="W47" s="38"/>
-      <c r="X47" s="38"/>
-      <c r="Y47" s="38"/>
-      <c r="Z47" s="38"/>
-      <c r="AA47" s="38"/>
-      <c r="AB47" s="38"/>
+      <c r="A47" s="29"/>
+      <c r="B47" s="39"/>
+      <c r="C47" s="39"/>
+      <c r="D47" s="39"/>
+      <c r="E47" s="39"/>
+      <c r="F47" s="39"/>
+      <c r="G47" s="39"/>
+      <c r="H47" s="39"/>
+      <c r="I47" s="29"/>
+      <c r="J47" s="29"/>
+      <c r="K47" s="29"/>
+      <c r="L47" s="29"/>
+      <c r="M47" s="29"/>
+      <c r="N47" s="29"/>
+      <c r="O47" s="29"/>
+      <c r="P47" s="29"/>
+      <c r="Q47" s="29"/>
+      <c r="R47" s="29"/>
+      <c r="S47" s="29"/>
+      <c r="T47" s="29"/>
+      <c r="U47" s="29"/>
+      <c r="V47" s="29"/>
+      <c r="W47" s="29"/>
+      <c r="X47" s="29"/>
+      <c r="Y47" s="29"/>
+      <c r="Z47" s="29"/>
+      <c r="AA47" s="29"/>
+      <c r="AB47" s="29"/>
       <c r="AC47" s="2"/>
       <c r="AD47" s="2"/>
       <c r="AE47" s="2"/>
@@ -7473,34 +7473,34 @@
       <c r="DB47" s="2"/>
     </row>
     <row r="48" spans="1:175" x14ac:dyDescent="0.45">
-      <c r="A48" s="38"/>
-      <c r="B48" s="57"/>
-      <c r="C48" s="57"/>
-      <c r="D48" s="57"/>
-      <c r="E48" s="57"/>
-      <c r="F48" s="57"/>
-      <c r="G48" s="57"/>
-      <c r="H48" s="57"/>
-      <c r="I48" s="38"/>
-      <c r="J48" s="38"/>
-      <c r="K48" s="38"/>
-      <c r="L48" s="38"/>
-      <c r="M48" s="38"/>
-      <c r="N48" s="38"/>
-      <c r="O48" s="38"/>
-      <c r="P48" s="38"/>
-      <c r="Q48" s="38"/>
-      <c r="R48" s="38"/>
-      <c r="S48" s="38"/>
-      <c r="T48" s="38"/>
-      <c r="U48" s="38"/>
-      <c r="V48" s="38"/>
-      <c r="W48" s="38"/>
-      <c r="X48" s="38"/>
-      <c r="Y48" s="38"/>
-      <c r="Z48" s="38"/>
-      <c r="AA48" s="38"/>
-      <c r="AB48" s="38"/>
+      <c r="A48" s="29"/>
+      <c r="B48" s="39"/>
+      <c r="C48" s="39"/>
+      <c r="D48" s="39"/>
+      <c r="E48" s="39"/>
+      <c r="F48" s="39"/>
+      <c r="G48" s="39"/>
+      <c r="H48" s="39"/>
+      <c r="I48" s="29"/>
+      <c r="J48" s="29"/>
+      <c r="K48" s="29"/>
+      <c r="L48" s="29"/>
+      <c r="M48" s="29"/>
+      <c r="N48" s="29"/>
+      <c r="O48" s="29"/>
+      <c r="P48" s="29"/>
+      <c r="Q48" s="29"/>
+      <c r="R48" s="29"/>
+      <c r="S48" s="29"/>
+      <c r="T48" s="29"/>
+      <c r="U48" s="29"/>
+      <c r="V48" s="29"/>
+      <c r="W48" s="29"/>
+      <c r="X48" s="29"/>
+      <c r="Y48" s="29"/>
+      <c r="Z48" s="29"/>
+      <c r="AA48" s="29"/>
+      <c r="AB48" s="29"/>
       <c r="AC48" s="2"/>
       <c r="AD48" s="2"/>
       <c r="AE48" s="2"/>
@@ -18014,44 +18014,139 @@
     </row>
   </sheetData>
   <mergeCells count="205">
-    <mergeCell ref="Q24:AA24"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="I42:J42"/>
-    <mergeCell ref="Q42:AA42"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="I43:J43"/>
-    <mergeCell ref="Q43:AA43"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="Q35:AA35"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="Q29:AA29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="Q39:AA39"/>
+    <mergeCell ref="Q38:AA38"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="Q36:AA36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="Q37:AA37"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="Q21:AA21"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="Q4:AA4"/>
+    <mergeCell ref="Q5:AA5"/>
+    <mergeCell ref="Q6:AA6"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="Q26:AA26"/>
+    <mergeCell ref="Q27:AA27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="Q1:AA1"/>
+    <mergeCell ref="Q11:AA11"/>
+    <mergeCell ref="Q10:AA10"/>
+    <mergeCell ref="Q8:AA8"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="Q20:AA20"/>
+    <mergeCell ref="Q19:AA19"/>
+    <mergeCell ref="Q17:AA17"/>
+    <mergeCell ref="Q18:AA18"/>
+    <mergeCell ref="Q16:AA16"/>
+    <mergeCell ref="Q12:AA12"/>
+    <mergeCell ref="Q13:AA13"/>
+    <mergeCell ref="Q14:AA14"/>
+    <mergeCell ref="Q15:AA15"/>
+    <mergeCell ref="Q7:AA7"/>
+    <mergeCell ref="Q9:AA9"/>
+    <mergeCell ref="Q2:AA2"/>
+    <mergeCell ref="Q3:AA3"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="Q31:AA31"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="Q28:AA28"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="Q25:AA25"/>
     <mergeCell ref="Q22:AA22"/>
     <mergeCell ref="C23:D23"/>
     <mergeCell ref="G23:H23"/>
@@ -18076,101 +18171,21 @@
     <mergeCell ref="E33:F33"/>
     <mergeCell ref="E34:F34"/>
     <mergeCell ref="I29:J29"/>
-    <mergeCell ref="Q30:AA30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="Q31:AA31"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="Q28:AA28"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="Q25:AA25"/>
-    <mergeCell ref="Q26:AA26"/>
-    <mergeCell ref="Q27:AA27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="Q1:AA1"/>
-    <mergeCell ref="Q11:AA11"/>
-    <mergeCell ref="Q10:AA10"/>
-    <mergeCell ref="Q8:AA8"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="Q20:AA20"/>
-    <mergeCell ref="Q19:AA19"/>
-    <mergeCell ref="Q17:AA17"/>
-    <mergeCell ref="Q18:AA18"/>
-    <mergeCell ref="Q16:AA16"/>
-    <mergeCell ref="Q12:AA12"/>
-    <mergeCell ref="Q13:AA13"/>
-    <mergeCell ref="Q14:AA14"/>
-    <mergeCell ref="Q15:AA15"/>
-    <mergeCell ref="Q7:AA7"/>
-    <mergeCell ref="Q9:AA9"/>
-    <mergeCell ref="Q2:AA2"/>
-    <mergeCell ref="Q3:AA3"/>
-    <mergeCell ref="Q4:AA4"/>
-    <mergeCell ref="Q5:AA5"/>
-    <mergeCell ref="Q6:AA6"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="I21:J21"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="G15:H15"/>
     <mergeCell ref="I15:J15"/>
@@ -18180,45 +18195,30 @@
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="G13:H13"/>
     <mergeCell ref="I13:J13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="Q21:AA21"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="Q39:AA39"/>
-    <mergeCell ref="Q38:AA38"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="Q36:AA36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="Q37:AA37"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="Q24:AA24"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="Q42:AA42"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="I43:J43"/>
+    <mergeCell ref="Q43:AA43"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="Q35:AA35"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="Q29:AA29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="Q30:AA30"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
@@ -18267,21 +18267,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010021DA309B11C7AF4CA66A9AAE5D9D3FA9" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="48beb668acfa1a6a1bf7104ac7047b6c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="d268e1cc-7369-4931-92a2-fb4cb7ab84fe" xmlns:ns4="c9bba009-7859-4fee-be46-d460c7902dd2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d43c724a570113859007f3fce04648f2" ns3:_="" ns4:_="">
     <xsd:import namespace="d268e1cc-7369-4931-92a2-fb4cb7ab84fe"/>
@@ -18490,32 +18475,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AE0D506C-14B3-4FDC-82C8-68A29D469EB5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="c9bba009-7859-4fee-be46-d460c7902dd2"/>
-    <ds:schemaRef ds:uri="d268e1cc-7369-4931-92a2-fb4cb7ab84fe"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BB5E03C0-BE0E-4228-A0F0-9F12EC1BA76F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A6D33EDC-0603-4E8D-96F2-D39AD4BFF840}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -18532,4 +18507,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BB5E03C0-BE0E-4228-A0F0-9F12EC1BA76F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AE0D506C-14B3-4FDC-82C8-68A29D469EB5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="c9bba009-7859-4fee-be46-d460c7902dd2"/>
+    <ds:schemaRef ds:uri="d268e1cc-7369-4931-92a2-fb4cb7ab84fe"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>